--- a/Healthcare/Danaher.xlsx
+++ b/Healthcare/Danaher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438C3DA1-9572-F243-8CC5-D032BFC3E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B6E24D-1ABD-5E4A-B701-ECC24CA995BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27560" yWindow="500" windowWidth="23620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2531,12 +2531,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>303.82</v>
-    <v>233.708</v>
-    <v>0.80179999999999996</v>
-    <v>4.08</v>
-    <v>1.6212000000000001E-2</v>
-    <v>-0.34</v>
-    <v>-1.3289999999999999E-3</v>
+    <v>221.22</v>
+    <v>0.8024</v>
+    <v>-1.27</v>
+    <v>-5.4910000000000002E-3</v>
     <v>USD</v>
     <v>Danaher Corporation designs, manufactures and markets professional, medical, industrial, and commercial products and services. The Company’s segments include Biotechnology, which includes the bioprocessing and discovery and medical businesses and offers a range of tools, consumables and services; Life Sciences segment, which offers a range of instruments and consumables that are primarily used by customers to study the basic building blocks of life, including genes, proteins, metabolites, and cells, to understand the causes of disease, identify new therapies, and test and manufacture new drugs and vaccines; Diagnostics segment that offers clinical instruments, reagents, consumables, software, and services that hospitals, physicians’ offices, reference laboratories, and other critical care settings use to diagnose disease, and Environmental &amp; Applied Solutions segment, which offers products and services that help protect precious resources and keep global food and water supplies safe.</v>
     <v>79000</v>
@@ -2544,25 +2542,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2200 Pennsylvania Ave NW Ste 800W, WASHINGTON, DC, 20037-1731 US</v>
-    <v>256.29000000000002</v>
+    <v>233.65</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45033.987228923441</v>
+    <v>45069.958333356248</v>
     <v>0</v>
-    <v>251.29</v>
-    <v>186469064100</v>
+    <v>229.5</v>
+    <v>169724102988</v>
     <v>DANAHER CORPORATION</v>
     <v>DANAHER CORPORATION</v>
-    <v>252.12</v>
-    <v>26.044499999999999</v>
-    <v>251.67</v>
-    <v>255.75</v>
-    <v>255.41</v>
-    <v>729106800</v>
+    <v>230.32</v>
+    <v>24.750699999999998</v>
+    <v>231.28</v>
+    <v>230.01</v>
+    <v>228.4</v>
+    <v>737898800</v>
     <v>DHR</v>
     <v>DANAHER CORPORATION (XNYS:DHR)</v>
-    <v>2610947</v>
-    <v>2345830</v>
+    <v>50</v>
+    <v>3748044</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -2594,8 +2592,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2633,7 +2629,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2651,9 +2647,7 @@
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2720,8 +2714,6 @@
       <v>9</v>
       <v>4</v>
       <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
@@ -2730,8 +2722,6 @@
       <v>Source: Nasdaq</v>
       <v>GMT</v>
       <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2777,8 +2767,6 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
     <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2787,8 +2775,6 @@
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3150,10 +3136,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR61" sqref="AR61"/>
+      <selection pane="bottomRight" activeCell="AO85" sqref="AO85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5368,15 +5354,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>5.925107689619014</v>
+        <v>5.3930317749038794</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>26.252156004505139</v>
+        <v>23.894706882725607</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>25.311397325912854</v>
+        <v>23.038428531016695</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15046,7 +15032,7 @@
       </c>
       <c r="AU95" s="39" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.80179999999999996</v>
+        <v>0.8024</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15297,7 +15283,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.5467489999999998E-2</v>
+        <v>7.5493320000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15672,7 +15658,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>9.5451737513915502E-2</v>
+        <v>0.10389063046399834</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15798,7 +15784,7 @@
       </c>
       <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>186469064100</v>
+        <v>169724102988</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15924,7 +15910,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.90454826248608444</v>
+        <v>0.89610936953600162</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16050,7 +16036,7 @@
       </c>
       <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>206146064100</v>
+        <v>189401102988</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16340,7 +16326,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.9153849934511027E-2</v>
+        <v>6.8618807201428225E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16538,7 +16524,7 @@
       <c r="AQ107" s="43"/>
       <c r="AR107" s="46">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>227072333852.04236</v>
+        <v>229857678291.89923</v>
       </c>
       <c r="AS107" s="47" t="s">
         <v>148</v>
@@ -16569,7 +16555,7 @@
       </c>
       <c r="AR108" s="46">
         <f>AR107+AR106</f>
-        <v>236853912147.82993</v>
+        <v>239639256587.6868</v>
       </c>
       <c r="AS108" s="47" t="s">
         <v>144</v>
@@ -16579,7 +16565,7 @@
       </c>
       <c r="AU108" s="51">
         <f>AU105</f>
-        <v>6.9153849934511027E-2</v>
+        <v>6.8618807201428225E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16594,7 +16580,7 @@
       </c>
       <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>198272988681.23642</v>
+        <v>200732429039.24985</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16621,7 +16607,7 @@
       </c>
       <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>184590988681.23642</v>
+        <v>187050429039.24985</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16639,7 +16625,7 @@
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>240.16483502831102</v>
+        <v>243.36472626928742</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16648,7 +16634,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>255.75</v>
+        <v>230.01</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16657,7 +16643,7 @@
       </c>
       <c r="AO117" s="58">
         <f>AO115/AO116-1</f>
-        <v>-6.0939061472879752E-2</v>
+        <v>5.8061502844604318E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16666,7 +16652,7 @@
       </c>
       <c r="AO118" s="59" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>

--- a/Healthcare/Danaher.xlsx
+++ b/Healthcare/Danaher.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B6E24D-1ABD-5E4A-B701-ECC24CA995BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED79E275-1BA0-B54C-A283-F27C31EDE91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,16 +548,45 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,101 +922,98 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1064,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>DHR</a:t>
+              <a:t>Danaher</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1124,10 +1103,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7416252072968492E-2"/>
-          <c:y val="0.10777817679871887"/>
-          <c:w val="0.86084245439469331"/>
-          <c:h val="0.76090672860634689"/>
+          <c:x val="9.9887973640856678E-2"/>
+          <c:y val="0.14986057017921481"/>
+          <c:w val="0.83553212520593079"/>
+          <c:h val="0.66100745403063088"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1306,7 +1285,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0159-1447-80B3-A57F72E0EDA3}"/>
+              <c16:uniqueId val="{00000000-61B6-EB4C-81A6-FDDA2E7ED862}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1315,11 +1294,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1359,130 +1338,130 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>20900000</c:v>
+                  <c:v>5600000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27100000</c:v>
+                  <c:v>8700000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56500000</c:v>
+                  <c:v>20100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89600000</c:v>
+                  <c:v>39000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112200000</c:v>
+                  <c:v>61100000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87700000</c:v>
+                  <c:v>35700000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59500000</c:v>
+                  <c:v>13300000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93800000</c:v>
+                  <c:v>31600000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95900000</c:v>
+                  <c:v>17700000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181200000</c:v>
+                  <c:v>81700000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>234200000</c:v>
+                  <c:v>108400000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>358200000</c:v>
+                  <c:v>207800000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>329900000</c:v>
+                  <c:v>154800000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>409800000</c:v>
+                  <c:v>182900000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>555900000</c:v>
+                  <c:v>261600000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>672645000</c:v>
+                  <c:v>324213000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>654654000</c:v>
+                  <c:v>297665000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>643283000</c:v>
+                  <c:v>290391000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>930471000</c:v>
+                  <c:v>536834000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1213845000</c:v>
+                  <c:v>746000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1411414000</c:v>
+                  <c:v>897800000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1663362000</c:v>
+                  <c:v>1122029000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2061497000</c:v>
+                  <c:v>1369904000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2218768000</c:v>
+                  <c:v>1317631000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1889097000</c:v>
+                  <c:v>1151704000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2860562000</c:v>
+                  <c:v>1793000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3461397000</c:v>
+                  <c:v>2172264000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4101000000</c:v>
+                  <c:v>2392200000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4606900000</c:v>
+                  <c:v>2695000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4543000000</c:v>
+                  <c:v>2598400000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5296800000</c:v>
+                  <c:v>3357400000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4324100000</c:v>
+                  <c:v>2553700000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4362100000</c:v>
+                  <c:v>2492100000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4757900000</c:v>
+                  <c:v>2650900000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5179300000</c:v>
+                  <c:v>3008200000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6545000000</c:v>
+                  <c:v>3646000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10090000000</c:v>
+                  <c:v>6433000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10619000000</c:v>
+                  <c:v>7103000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0159-1447-80B3-A57F72E0EDA3}"/>
+              <c16:uniqueId val="{00000001-61B6-EB4C-81A6-FDDA2E7ED862}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1491,11 +1470,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1535,7 +1514,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1658,7 +1637,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0159-1447-80B3-A57F72E0EDA3}"/>
+              <c16:uniqueId val="{00000002-61B6-EB4C-81A6-FDDA2E7ED862}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1672,11 +1651,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1502850672"/>
-        <c:axId val="1502725552"/>
+        <c:axId val="872321791"/>
+        <c:axId val="872323791"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1502850672"/>
+        <c:axId val="872321791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502725552"/>
+        <c:crossAx val="872323791"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,7 +1703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1502725552"/>
+        <c:axId val="872323791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1773,7 +1752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502850672"/>
+        <c:crossAx val="872321791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1791,10 +1770,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34797048876353143"/>
-          <c:y val="0.92675920891936903"/>
-          <c:w val="0.30405891800838331"/>
-          <c:h val="4.4817722222432639E-2"/>
+          <c:x val="0.34976217099715917"/>
+          <c:y val="0.90071017917326357"/>
+          <c:w val="0.31274646188172112"/>
+          <c:h val="6.0090894255158997E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2374,22 +2353,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE915A5-EDD0-2F4F-90B2-D2D21D3397D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27130F15-E3A6-8742-D3F2-90571AF2D71C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,6 +2387,58 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2532,35 +2563,35 @@
     <v>Powered by Refinitiv</v>
     <v>303.82</v>
     <v>221.22</v>
-    <v>0.8024</v>
-    <v>-1.27</v>
-    <v>-5.4910000000000002E-3</v>
+    <v>0.80079999999999996</v>
+    <v>-1.32</v>
+    <v>-5.6310000000000006E-3</v>
     <v>USD</v>
     <v>Danaher Corporation designs, manufactures and markets professional, medical, industrial, and commercial products and services. The Company’s segments include Biotechnology, which includes the bioprocessing and discovery and medical businesses and offers a range of tools, consumables and services; Life Sciences segment, which offers a range of instruments and consumables that are primarily used by customers to study the basic building blocks of life, including genes, proteins, metabolites, and cells, to understand the causes of disease, identify new therapies, and test and manufacture new drugs and vaccines; Diagnostics segment that offers clinical instruments, reagents, consumables, software, and services that hospitals, physicians’ offices, reference laboratories, and other critical care settings use to diagnose disease, and Environmental &amp; Applied Solutions segment, which offers products and services that help protect precious resources and keep global food and water supplies safe.</v>
     <v>79000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>2200 Pennsylvania Ave NW Ste 800W, WASHINGTON, DC, 20037-1731 US</v>
-    <v>233.65</v>
+    <v>2200 Pennsylvania Ave NW Ste 800W, WASHINGTON, DC, 20037-1701 US</v>
+    <v>236.14</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45069.958333356248</v>
+    <v>45114.958333344533</v>
     <v>0</v>
-    <v>229.5</v>
-    <v>169724102988</v>
+    <v>232.66</v>
+    <v>171989500000</v>
     <v>DANAHER CORPORATION</v>
     <v>DANAHER CORPORATION</v>
-    <v>230.32</v>
-    <v>24.750699999999998</v>
-    <v>231.28</v>
-    <v>230.01</v>
-    <v>228.4</v>
+    <v>232.88</v>
+    <v>25.081</v>
+    <v>234.4</v>
+    <v>233.08</v>
+    <v>232.2</v>
     <v>737898800</v>
     <v>DHR</v>
     <v>DANAHER CORPORATION (XNYS:DHR)</v>
-    <v>50</v>
-    <v>3748044</v>
+    <v>198</v>
+    <v>3105440</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -3136,10 +3167,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO85" sqref="AO85"/>
+      <selection pane="bottomRight" activeCell="AO94" sqref="AO94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3267,19 +3298,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3288,127 +3319,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3531,37 +3562,37 @@
       <c r="AM3" s="1">
         <v>31471000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>30200000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>32282000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>34756000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>37587000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>41535000000</v>
+      <c r="AN3" s="24">
+        <v>29432000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>31472000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>33844000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>35863000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>36783000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3714,23 +3745,23 @@
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>-4.0386387467827523E-2</v>
+        <v>-6.478980648851318E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8940397350993443E-2</v>
+        <v>6.931231312856756E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>7.6637135245647636E-2</v>
+        <v>7.5368581596339634E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>8.1453561974910826E-2</v>
+        <v>5.9656069022574254E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10503631574746586</v>
+        <v>2.5653180157822808E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3745,7 +3776,7 @@
         <v>0.36019009774136151</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.32682726757998526</v>
       </c>
     </row>
@@ -3987,16 +4018,16 @@
         <v>18949000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4130,7 +4161,7 @@
         <v>0.22570000000000001</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.23408852594452034</v>
       </c>
     </row>
@@ -4139,70 +4170,70 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X8" s="1">
         <v>601424000</v>
@@ -4255,7 +4286,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4410,16 +4441,16 @@
         <v>5.5447872644656983E-2</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4427,118 +4458,118 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4562,118 +4593,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4795,21 +4826,21 @@
         <v>8516000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5033,10 +5064,10 @@
         <v>149721000</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1">
         <v>-22500000</v>
@@ -5054,49 +5085,49 @@
         <v>-14335000</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1">
         <v>-85118000</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1">
         <v>547000000</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -5218,16 +5249,16 @@
         <v>10261000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5348,95 +5379,95 @@
       <c r="AM16" s="1">
         <v>22783000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>8.6322569161590441E-3</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="59">
         <f>AU101/AM3</f>
-        <v>5.3930317749038794</v>
-      </c>
-      <c r="AU16" s="30">
+        <v>5.4650154110133142</v>
+      </c>
+      <c r="AU16" s="59">
         <f>AU101/AM28</f>
-        <v>23.894706882725607</v>
-      </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
-        <v>23.038428531016695</v>
+        <v>24.213642123046601</v>
+      </c>
+      <c r="AV16" s="60">
+        <f>AU101/AM107</f>
+        <v>23.34593457309624</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>130174000</v>
@@ -5484,7 +5515,7 @@
         <v>211000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5603,10 +5634,19 @@
         <v>2222000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5724,14 +5764,41 @@
       <c r="AM19" s="10">
         <v>10619000000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="63">
+        <v>9455000000</v>
+      </c>
+      <c r="AO19" s="63">
+        <v>10468000000</v>
+      </c>
+      <c r="AP19" s="63">
+        <v>11392000000</v>
+      </c>
+      <c r="AQ19" s="63">
+        <v>13989000000</v>
+      </c>
+      <c r="AR19" s="63">
+        <v>13978000000</v>
+      </c>
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-13682000000</v>
       </c>
+      <c r="AT19" s="59">
+        <f>AU101/AN3</f>
+        <v>5.8436225876596906</v>
+      </c>
+      <c r="AU19" s="59">
+        <f>AU101/AN28</f>
+        <v>24.807370546660898</v>
+      </c>
+      <c r="AV19" s="60">
+        <f>AU101/AN105</f>
+        <v>20.983468774123494</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5747,7 +5814,7 @@
         <v>0.58584070796460175</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AR20" si="3">(F19/E19)-1</f>
         <v>0.25223214285714279</v>
       </c>
       <c r="G20" s="15">
@@ -5882,8 +5949,28 @@
         <f t="shared" si="3"/>
         <v>5.2428146679881049E-2</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.10961484132215837</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10713907985193027</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="3"/>
+        <v>8.8269010317157059E-2</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.22796699438202239</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="3"/>
+        <v>-7.8633211809275849E-4</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6001,8 +6088,34 @@
       <c r="AM21" s="2">
         <v>0.33739999999999998</v>
       </c>
+      <c r="AN21" s="64">
+        <f>AN19/AN3</f>
+        <v>0.3212489807012775</v>
+      </c>
+      <c r="AO21" s="64">
+        <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
+        <v>0.3326131164209456</v>
+      </c>
+      <c r="AP21" s="64">
+        <f t="shared" si="4"/>
+        <v>0.33660323838789741</v>
+      </c>
+      <c r="AQ21" s="64">
+        <f t="shared" si="4"/>
+        <v>0.39006775785628645</v>
+      </c>
+      <c r="AR21" s="64">
+        <f t="shared" si="4"/>
+        <v>0.38001250577712531</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6120,8 +6233,16 @@
       <c r="AM22" s="10">
         <v>8688000000</v>
       </c>
+      <c r="AU22" s="61">
+        <f>(-1*AM98)/AU101</f>
+        <v>4.756104297064646E-3</v>
+      </c>
+      <c r="AV22" s="62">
+        <f>AM107/AU101</f>
+        <v>4.2834010215739918E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6240,7 +6361,7 @@
         <v>0.27610000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6359,7 +6480,7 @@
         <v>-396000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6478,7 +6599,7 @@
         <v>8292000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6597,7 +6718,7 @@
         <v>0.26350000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6716,7 +6837,7 @@
         <v>1083000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6834,10 +6955,25 @@
       <c r="AM28" s="11">
         <v>7103000000</v>
       </c>
+      <c r="AN28" s="65">
+        <v>6933000000</v>
+      </c>
+      <c r="AO28" s="65">
+        <v>7642000000</v>
+      </c>
+      <c r="AP28" s="65">
+        <v>8400000000</v>
+      </c>
+      <c r="AQ28" s="65">
+        <v>9567000000</v>
+      </c>
+      <c r="AR28" s="65">
+        <v>10651000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6853,143 +6989,163 @@
         <v>0.94029850746268662</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AR29" si="5">(F28/E28)-1</f>
         <v>0.56666666666666665</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.41571194762684127</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.62745098039215685</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3759398496240602</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.439873417721519</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6158192090395485</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32680538555691552</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91697416974169732</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.25505293551491814</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1815245478036176</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43028977583378891</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23934633027522945</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.1884440167420802E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.4436866947743274E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84865922153234785</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38962882380773189</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20348525469168899</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24975384272666523</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22091674992357602</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.8158148308202633E-2</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.12592827582229016</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55682362829338095</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21152481873954265</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10124736219906971</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1265780453139369</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.5844155844155789E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29210283251231517</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.23938166438315367</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.4121862395739546E-2</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3721359496007324E-2</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13478441284092191</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21202047736187746</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76439934174437729</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10415047411782985</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="5"/>
+        <v>-2.3933549204561477E-2</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10226453194865148</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="5"/>
+        <v>9.9188694059146876E-2</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.13892857142857151</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.11330615657991006</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7107,8 +7263,28 @@
       <c r="AM30" s="2">
         <v>0.22570000000000001</v>
       </c>
+      <c r="AN30" s="66">
+        <f>AN28/AN3</f>
+        <v>0.23555993476488177</v>
+      </c>
+      <c r="AO30" s="66">
+        <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
+        <v>0.24281901372648704</v>
+      </c>
+      <c r="AP30" s="66">
+        <f t="shared" si="6"/>
+        <v>0.2481976125753457</v>
+      </c>
+      <c r="AQ30" s="66">
+        <f t="shared" si="6"/>
+        <v>0.2667651897498815</v>
+      </c>
+      <c r="AR30" s="66">
+        <f t="shared" si="6"/>
+        <v>0.28956311339477475</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7226,8 +7402,23 @@
       <c r="AM31" s="12">
         <v>9.94</v>
       </c>
+      <c r="AN31" s="67">
+        <v>9.4</v>
+      </c>
+      <c r="AO31" s="67">
+        <v>10.36</v>
+      </c>
+      <c r="AP31" s="67">
+        <v>11.38</v>
+      </c>
+      <c r="AQ31" s="67">
+        <v>12.97</v>
+      </c>
+      <c r="AR31" s="67">
+        <v>14.43</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7586,7 +7777,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7594,147 +7785,147 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AM35" si="7">(D34-C34)/C34</f>
         <v>0.10016420402298851</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8656716037814658E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.5897435897435895E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11702127659574468</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.5555554761904762E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8259935352075138E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9778480082068176E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1089833943502825</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.48631408618528105</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.2666062301561347E-4</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0344563846572267E-3</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1524487617305858</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1870252367066279E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0386339833936849E-3</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3636038735661416E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3688425267372634E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9484862634242376E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4114625239834127E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.605405537364854E-4</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.3297000149397983E-3</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2937700422135519E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.943792702582112E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.6026594176792322E-4</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7559614227591426E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6220774944202555E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6983960147805663E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.944888514934792E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.1729957805907177E-3</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0613042871107387E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2279463655610445E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.0025721634752788E-3</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.8065429825803708E-3</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.154322725992678E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.3728463128876643E-3</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5184360651175734E-2</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7743,118 +7934,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7862,118 +8053,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -7999,7 +8190,7 @@
         <v>600000</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1">
         <v>1700000</v>
@@ -8100,118 +8291,118 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8237,7 +8428,7 @@
         <v>600000</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1">
         <v>1700000</v>
@@ -8933,67 +9124,67 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1">
         <v>2292657000</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1">
         <v>6596123000</v>
@@ -9100,7 +9291,7 @@
         <v>1863900000</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1">
         <v>3007704000</v>
@@ -9290,79 +9481,79 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1">
         <v>511283000</v>
@@ -9374,34 +9565,34 @@
         <v>548300000</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9409,118 +9600,118 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9766,118 +9957,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10004,19 +10195,19 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1">
         <v>72400000</v>
@@ -10242,85 +10433,85 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1">
         <v>194500000</v>
@@ -10353,7 +10544,7 @@
         <v>707000000</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10361,85 +10552,85 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC58" s="1">
         <v>730000000</v>
@@ -10472,7 +10663,7 @@
         <v>1613000000</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10837,85 +11028,85 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1">
         <v>105200000</v>
@@ -10948,7 +11139,7 @@
         <v>213000000</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10956,118 +11147,118 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11313,118 +11504,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11551,46 +11742,46 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1">
         <v>1500000</v>
@@ -12265,118 +12456,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12384,118 +12575,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12503,19 +12694,19 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G76" s="1">
         <v>35700000</v>
@@ -12622,19 +12813,19 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G77" s="1">
         <v>25600000</v>
@@ -12741,67 +12932,67 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W78" s="1">
         <v>24154000</v>
@@ -12810,43 +13001,43 @@
         <v>29870000</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL78" s="1">
         <v>-229000000</v>
@@ -12860,73 +13051,73 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1">
         <v>86000000</v>
@@ -12976,158 +13167,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.7730102785943892E-3</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.809609673294568E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6745933869702349E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.9415656652915313E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.0184880944557624E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.1565017261219794E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.081210015165363E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.7596811764763093E-3</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6884803108562766E-3</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6051435648155728E-3</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6107173377569998E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.8660104627856472E-3</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.3916711541913488E-3</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4016229246596276E-3</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0676495821549998E-2</v>
       </c>
     </row>
@@ -13136,19 +13327,19 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G81" s="1">
         <v>8700000</v>
@@ -13255,73 +13446,73 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1">
         <v>71403000</v>
@@ -13374,19 +13565,19 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1">
         <v>-500000</v>
@@ -13487,83 +13678,83 @@
       <c r="AM83" s="1">
         <v>-486000000</v>
       </c>
-      <c r="AT83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="63"/>
+      <c r="AT83" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU83" s="33"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1">
         <v>3713000</v>
@@ -13610,56 +13801,56 @@
       <c r="AM84" s="1">
         <v>5000000</v>
       </c>
-      <c r="AT84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="65"/>
+      <c r="AT84" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU84" s="34"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1">
         <v>34400000</v>
@@ -13671,31 +13862,31 @@
         <v>-38587000</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB85" s="1">
         <v>271395000</v>
@@ -13731,12 +13922,12 @@
         <v>-229000000</v>
       </c>
       <c r="AM85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT85" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU85" s="36">
         <f>AM17</f>
         <v>211000000</v>
       </c>
@@ -13746,31 +13937,31 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H86" s="1">
         <v>100000</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K86" s="1">
         <v>30700000</v>
@@ -13788,25 +13979,25 @@
         <v>37400000</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S86" s="1">
         <v>143750000</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W86" s="1">
         <v>67191000</v>
@@ -13815,7 +14006,7 @@
         <v>-136092000</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z86" s="1">
         <v>-84749000</v>
@@ -13857,12 +14048,12 @@
         <v>512000000</v>
       </c>
       <c r="AM86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU86" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT86" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU86" s="36">
         <f>AM56</f>
         <v>591000000</v>
       </c>
@@ -13872,19 +14063,19 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G87" s="10">
         <v>70000000</v>
@@ -13985,10 +14176,10 @@
       <c r="AM87" s="10">
         <v>8519000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU87" s="36">
         <f>AM61</f>
         <v>19086000000</v>
       </c>
@@ -13998,19 +14189,19 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G88" s="1">
         <v>-33000000</v>
@@ -14111,174 +14302,174 @@
       <c r="AM88" s="1">
         <v>-1152000000</v>
       </c>
-      <c r="AT88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU88" s="34">
+      <c r="AT88" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU88" s="38">
         <f>AU85/(AU86+AU87)</f>
         <v>1.0723179346445089E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9285714285714285E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0264550264550262E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.5721812434141201E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7765907600037486E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.2290680530767441E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9817056766209308E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8312820795849659E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0619210141394442E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.21168384879725086</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.8073314149881148E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.3427269529143726E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1305008084719825E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4294665422246458E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.5176592727143589E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6824058057559106E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.5179773727366725E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4349750177253897E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.469909486893471E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.526156105600996E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6857223526853704E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6460997612440336E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.0786810138130853E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5098026330200873E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8847159744743174E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0004318613222992E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0783296292874129E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4923944462872579E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3803062788807237E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.2961343186045343E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.5480791241185632E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.5496320229761263E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.3934403965640176E-2</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.6605128531028569E-2</v>
+      </c>
+      <c r="AT89" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9285714285714285E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.0264550264550262E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5721812434141201E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7765907600037486E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.2290680530767441E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9817056766209308E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8312820795849659E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0619210141394442E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21168384879725086</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.8073314149881148E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.3427269529143726E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.1305008084719825E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4294665422246458E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.5176592727143589E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6824058057559106E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.5179773727366725E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4349750177253897E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.469909486893471E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.526156105600996E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6857223526853704E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6460997612440336E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.0786810138130853E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5098026330200873E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8847159744743174E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0004318613222992E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0783296292874129E-2</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4923944462872579E-2</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3803062788807237E-2</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2961343186045343E-2</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5480791241185632E-2</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5496320229761263E-2</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.3934403965640176E-2</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.6605128531028569E-2</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="36">
         <f>AM27</f>
         <v>1083000000</v>
       </c>
@@ -14288,49 +14479,49 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>-706794000</v>
@@ -14399,12 +14590,12 @@
         <v>-10935000000</v>
       </c>
       <c r="AM90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT90" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="36">
         <f>AM25</f>
         <v>8292000000</v>
       </c>
@@ -14414,103 +14605,103 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1">
         <v>-23219000</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1">
         <v>-66768000</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF91" s="1">
         <v>-87100000</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI91" s="1">
         <v>-148900000</v>
@@ -14527,10 +14718,10 @@
       <c r="AM91" s="1">
         <v>-523000000</v>
       </c>
-      <c r="AT91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU91" s="34">
+      <c r="AT91" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU91" s="38">
         <f>AU89/AU90</f>
         <v>0.13060781476121563</v>
       </c>
@@ -14540,67 +14731,67 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1">
         <v>43100000</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1">
         <v>98485000</v>
@@ -14612,16 +14803,16 @@
         <v>48504000</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD92" s="1">
         <v>251200000</v>
@@ -14642,7 +14833,7 @@
         <v>22200000</v>
       </c>
       <c r="AJ92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK92" s="1">
         <v>13000000</v>
@@ -14653,10 +14844,10 @@
       <c r="AM92" s="1">
         <v>289000000</v>
       </c>
-      <c r="AT92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU92" s="36">
+      <c r="AT92" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU92" s="38">
         <f>AU88*(1-AU91)</f>
         <v>9.3226483247132955E-3</v>
       </c>
@@ -14666,25 +14857,25 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1">
         <v>-22500000</v>
@@ -14708,13 +14899,13 @@
         <v>16300000</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1">
         <v>79028000</v>
@@ -14779,29 +14970,29 @@
       <c r="AM93" s="1">
         <v>-848000000</v>
       </c>
-      <c r="AT93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="65"/>
+      <c r="AT93" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU93" s="34"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G94" s="10">
         <v>-33000000</v>
@@ -14902,11 +15093,12 @@
       <c r="AM94" s="10">
         <v>-2234000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU94" s="37">
-        <v>4.095E-2</v>
+      <c r="AT94" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU94" s="39">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14914,73 +15106,73 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-1164911000</v>
@@ -15027,12 +15219,12 @@
       <c r="AM95" s="1">
         <v>-965000000</v>
       </c>
-      <c r="AT95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU95" s="39" cm="1">
+      <c r="AT95" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU95" s="41" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.8024</v>
+        <v>0.80079999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15040,19 +15232,19 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1">
         <v>2300000</v>
@@ -15153,10 +15345,10 @@
       <c r="AM96" s="1">
         <v>31000000</v>
       </c>
-      <c r="AT96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU96" s="37">
+      <c r="AT96" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU96" s="42">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15165,37 +15357,37 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1">
         <v>-15200000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1">
         <v>-12100000</v>
@@ -15204,10 +15396,10 @@
         <v>-19800000</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1">
         <v>-82174000</v>
@@ -15216,19 +15408,19 @@
         <v>-17299000</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1">
         <v>-257696000</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X97" s="1">
         <v>-117486000</v>
@@ -15237,53 +15429,53 @@
         <v>-74165000</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC97" s="1">
         <v>-648400000</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU97" s="36">
+        <v>91</v>
+      </c>
+      <c r="AT97" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU97" s="38">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.5493320000000003E-2</v>
+        <v>7.5330815999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15291,28 +15483,28 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1">
         <v>-2600000</v>
@@ -15404,29 +15596,29 @@
       <c r="AM98" s="1">
         <v>-818000000</v>
       </c>
-      <c r="AT98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="65"/>
+      <c r="AT98" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU98" s="34"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="1">
         <v>-26600000</v>
@@ -15489,7 +15681,7 @@
         <v>744615000</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB99" s="1">
         <v>2639785000</v>
@@ -15527,10 +15719,10 @@
       <c r="AM99" s="1">
         <v>-818000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU99" s="36">
         <f>AU86+AU87</f>
         <v>19677000000</v>
       </c>
@@ -15540,19 +15732,19 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G100" s="10">
         <v>-39500000</v>
@@ -15653,12 +15845,12 @@
       <c r="AM100" s="10">
         <v>-2570000000</v>
       </c>
-      <c r="AT100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU100" s="34">
+      <c r="AT100" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU100" s="38">
         <f>AU99/AU103</f>
-        <v>0.10389063046399834</v>
+        <v>0.10266269796756344</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15666,19 +15858,19 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1">
         <v>-1600000</v>
@@ -15690,7 +15882,7 @@
         <v>100000</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1">
         <v>300000</v>
@@ -15779,12 +15971,12 @@
       <c r="AM101" s="1">
         <v>-306000000</v>
       </c>
-      <c r="AT101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU101" s="40" cm="1">
+      <c r="AT101" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU101" s="43" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>169724102988</v>
+        <v>171989500000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15792,19 +15984,19 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G102" s="10">
         <v>-39500000</v>
@@ -15905,12 +16097,12 @@
       <c r="AM102" s="10">
         <v>3409000000</v>
       </c>
-      <c r="AT102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU102" s="34">
+      <c r="AT102" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU102" s="38">
         <f>AU101/AU103</f>
-        <v>0.89610936953600162</v>
+        <v>0.89733730203243656</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15918,19 +16110,19 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G103" s="1">
         <v>4800000</v>
@@ -15939,7 +16131,7 @@
         <v>600000</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J103" s="1">
         <v>1700000</v>
@@ -16031,12 +16223,12 @@
       <c r="AM103" s="1">
         <v>2586000000</v>
       </c>
-      <c r="AT103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU103" s="41">
+      <c r="AT103" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU103" s="44">
         <f>AU99+AU101</f>
-        <v>189401102988</v>
+        <v>191666500000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16044,46 +16236,46 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P104" s="11">
         <v>260300000</v>
@@ -16157,462 +16349,590 @@
       <c r="AM104" s="11">
         <v>5995000000</v>
       </c>
-      <c r="AT104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="65"/>
+      <c r="AT104" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU104" s="34"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="10">(B22*(1-$AU$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>67026049.204052091</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>16941787.26483357</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>60432923.299565852</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>122653473.22720695</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>104344319.82633865</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>120951410.99855283</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>251456512.30101302</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>233440774.24023151</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>-186106946.45441389</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>401981620.83936322</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>579563025.68740952</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>666665440.30390739</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>820325987.69898701</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>979868441.7510854</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>1132103993.8494935</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>1284287476.121563</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>1515902251.4471779</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>1733380801.374819</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>1886923694.2836468</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>1798998580.3183792</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>2183134625.9044862</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>2660483831.4037628</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>3411713205.4992762</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>3432972467.4384947</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>3581045405.2098408</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>3485708429.8118668</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>2650910962.3733721</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="10"/>
+        <v>2892307670.0434155</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="10"/>
+        <v>3521137120.1157742</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="10"/>
+        <v>3273190810.4196815</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="10"/>
+        <v>5267398335.7452965</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="10"/>
+        <v>6706012662.8075256</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>7934279305.3545589</v>
+      </c>
+      <c r="AN105" s="27">
+        <f>AM105*(1+$AU$106)</f>
+        <v>8196428429.0352859</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" ref="AO105:AR105" si="11">AN105*(1+$AU$106)</f>
+        <v>8467238977.4531269</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="11"/>
+        <v>8746997124.6658993</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="11"/>
+        <v>9035998499.9416008</v>
+      </c>
+      <c r="AR105" s="27">
+        <f t="shared" si="11"/>
+        <v>9334548500.1591949</v>
+      </c>
+      <c r="AS105" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT105" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" s="15" t="e">
-        <f>(G106/F106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H105" s="15" t="e">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I105" s="15" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.4487179487179489</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.8638743455497355E-2</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.2791991101223581</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.44173913043478263</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.30036188178528356</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.3205009276437849</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.9322093431682474</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.5966164280331574</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.24577219156939845</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.22169748771515052</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.21132021639993992</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.17423044773368179</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.18018445236615754</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.30200582858779135</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>5.2612013096424715E-2</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.12235728959415093</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.1802508458209755E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.15799668421317059</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.22751353357725113</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.29012355375434806</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.6076368924814908E-2</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.1894653569780393E-2</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.4992881774177356E-3</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.466548851300181E-2</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.5237023395402791E-2</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.177769225386607</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.4912515224430378E-2</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.63354542987244056</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.30404282813365335</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.2893544733861866E-2</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="AU105" s="46">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.8618807201428225E-2</v>
+        <v>6.8554239418559745E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G106" s="1">
-        <v>37000000</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I106" s="1">
-        <v>39000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>95500000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>89900000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>115000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>165800000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>215600000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-284700000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>265400000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>423742000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>527886000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>644917000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>781201000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>917310000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>1082595000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>1409545000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1483704000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1665246000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>1612287000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1867023000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>2291796000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>2956700000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>3033800000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>3160900000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>3168800000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>2932200000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>2858200000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>3366300000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>3316100000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>5417000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>7064000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>7367000000</v>
-      </c>
-      <c r="AN106" s="42">
-        <f>AM106*(1+$AU$106)</f>
-        <v>7796762819.068944</v>
-      </c>
-      <c r="AO106" s="42">
-        <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>8251596369.8677759</v>
-      </c>
-      <c r="AP106" s="42">
-        <f t="shared" si="9"/>
-        <v>8732963183.7314167</v>
-      </c>
-      <c r="AQ106" s="42">
-        <f t="shared" si="9"/>
-        <v>9242411110.5219307</v>
-      </c>
-      <c r="AR106" s="42">
-        <f t="shared" si="9"/>
-        <v>9781578295.7875786</v>
-      </c>
-      <c r="AS106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f>(E107/D107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f>(F107/E107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15" t="e">
+        <f>(G107/F107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H106" s="15" t="e">
+        <f>(H107/G107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I106" s="15" t="e">
+        <f>(I107/H107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>1.4487179487179489</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-5.8638743455497355E-2</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>0.2791991101223581</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>0.44173913043478263</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>0.30036188178528356</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-2.3205009276437849</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-1.9322093431682474</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.5966164280331574</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>0.24577219156939845</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.22169748771515052</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>0.21132021639993992</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>0.17423044773368179</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>0.18018445236615754</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>0.30200582858779135</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>5.2612013096424715E-2</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>0.12235728959415093</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>-3.1802508458209755E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>0.15799668421317059</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>0.22751353357725113</v>
+      </c>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
+        <v>0.29012355375434806</v>
+      </c>
+      <c r="AD106" s="15">
+        <f>(AD107/AC107)-1</f>
+        <v>2.6076368924814908E-2</v>
+      </c>
+      <c r="AE106" s="15">
+        <f>(AE107/AD107)-1</f>
+        <v>4.1894653569780393E-2</v>
+      </c>
+      <c r="AF106" s="15">
+        <f>(AF107/AE107)-1</f>
+        <v>2.4992881774177356E-3</v>
+      </c>
+      <c r="AG106" s="15">
+        <f>(AG107/AF107)-1</f>
+        <v>-7.466548851300181E-2</v>
+      </c>
+      <c r="AH106" s="15">
+        <f>(AH107/AG107)-1</f>
+        <v>-2.5237023395402791E-2</v>
+      </c>
+      <c r="AI106" s="15">
+        <f>(AI107/AH107)-1</f>
+        <v>0.177769225386607</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f>(AJ107/AI107)-1</f>
+        <v>-1.4912515224430378E-2</v>
+      </c>
+      <c r="AK106" s="15">
+        <f>(AK107/AJ107)-1</f>
+        <v>0.63354542987244056</v>
+      </c>
+      <c r="AL106" s="15">
+        <f>(AL107/AK107)-1</f>
+        <v>0.30404282813365335</v>
+      </c>
+      <c r="AM106" s="15">
+        <f>(AM107/AL107)-1</f>
+        <v>4.2893544733861866E-2</v>
+      </c>
+      <c r="AN106" s="31">
+        <v>6998000000</v>
+      </c>
+      <c r="AO106" s="31">
+        <v>7562000000</v>
+      </c>
+      <c r="AP106" s="31">
+        <v>8304000000</v>
+      </c>
+      <c r="AQ106" s="31">
+        <v>10454000000</v>
+      </c>
+      <c r="AR106" s="31">
+        <v>10249000000</v>
+      </c>
+      <c r="AS106" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT106" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU106" s="48">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>5.8336204570238047E-2</v>
+        <v>3.3040067483358214E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="43"/>
-      <c r="AO107" s="43"/>
-      <c r="AP107" s="43"/>
-      <c r="AQ107" s="43"/>
-      <c r="AR107" s="46">
+      <c r="A107" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G107" s="1">
+        <v>37000000</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I107" s="1">
+        <v>39000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>95500000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>89900000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>115000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>165800000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>215600000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-284700000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>265400000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>423742000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>527886000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>644917000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>781201000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>917310000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>1082595000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1409545000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1483704000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1665246000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>1612287000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1867023000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>2291796000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>2956700000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>3033800000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>3160900000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>3168800000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>2932200000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>2858200000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>3366300000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>3316100000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>5417000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>7064000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>7367000000</v>
+      </c>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="68">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>229857678291.89923</v>
-      </c>
-      <c r="AS107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="49">
-        <v>2.5000000000000001E-2</v>
+        <v>215305195286.49008</v>
+      </c>
+      <c r="AS107" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT107" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU107" s="50">
+        <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="46">
-        <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>7796762819.068944</v>
-      </c>
-      <c r="AO108" s="46">
-        <f t="shared" si="10"/>
-        <v>8251596369.8677759</v>
-      </c>
-      <c r="AP108" s="46">
-        <f t="shared" si="10"/>
-        <v>8732963183.7314167</v>
-      </c>
-      <c r="AQ108" s="46">
-        <f>AQ107+AQ106</f>
-        <v>9242411110.5219307</v>
-      </c>
-      <c r="AR108" s="46">
+      <c r="AN108" s="68">
+        <f t="shared" ref="AN108:AQ108" si="12">AN107+AN106</f>
+        <v>6998000000</v>
+      </c>
+      <c r="AO108" s="68">
+        <f t="shared" si="12"/>
+        <v>7562000000</v>
+      </c>
+      <c r="AP108" s="68">
+        <f t="shared" si="12"/>
+        <v>8304000000</v>
+      </c>
+      <c r="AQ108" s="68">
+        <f t="shared" si="12"/>
+        <v>10454000000</v>
+      </c>
+      <c r="AR108" s="68">
         <f>AR107+AR106</f>
-        <v>239639256587.6868</v>
-      </c>
-      <c r="AS108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="51">
+        <v>225554195286.49008</v>
+      </c>
+      <c r="AS108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT108" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU108" s="48">
         <f>AU105</f>
-        <v>6.8618807201428225E-2</v>
+        <v>6.8554239418559745E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="61"/>
+      <c r="AN109" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO109" s="52"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO110" s="40">
+      <c r="AN110" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO110" s="43">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>200732429039.24985</v>
+        <v>189904414566.18143</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="40">
+      <c r="AN111" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO111" s="43">
         <f>AM40</f>
         <v>5995000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO112" s="40">
+      <c r="AN112" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO112" s="43">
         <f>AU99</f>
         <v>19677000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO113" s="40">
+      <c r="AN113" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO113" s="43">
         <f>AO110+AO111-AO112</f>
-        <v>187050429039.24985</v>
+        <v>176222414566.18143</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="52" t="s">
-        <v>155</v>
+      <c r="AN114" s="53" t="s">
+        <v>153</v>
       </c>
       <c r="AO114" s="53">
         <f>AM34*(1+(5*AS16))</f>
@@ -16621,38 +16941,38 @@
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN115" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AO115" s="55">
         <f>AO113/AO114</f>
-        <v>243.36472626928742</v>
+        <v>229.27677794533449</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="52" t="s">
-        <v>157</v>
+      <c r="AN116" s="53" t="s">
+        <v>155</v>
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>230.01</v>
+        <v>233.08</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO117" s="58">
+      <c r="AN117" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO117" s="57">
         <f>AO115/AO116-1</f>
-        <v>5.8061502844604318E-2</v>
+        <v>-1.6317238950856017E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO118" s="59" t="str">
+      <c r="AN118" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO118" s="58" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
@@ -16743,8 +17063,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/313616/000031361623000087/0000313616-23-000087-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/313616/000031361623000087/0000313616-23-000087-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NYSE:DHR/explorer/revenue_proj" xr:uid="{BF4F3612-71D8-1240-9444-C006B9A9F916}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{2D43F9C6-2458-C04E-AD3E-CE1EE99D8B54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Healthcare/Danaher.xlsx
+++ b/Healthcare/Danaher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED79E275-1BA0-B54C-A283-F27C31EDE91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752357F5-97ED-8647-A2F3-4A986462BA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,8 +585,8 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -939,73 +939,61 @@
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1014,6 +1002,18 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2564,8 +2564,8 @@
     <v>303.82</v>
     <v>221.22</v>
     <v>0.80079999999999996</v>
-    <v>-1.32</v>
-    <v>-5.6310000000000006E-3</v>
+    <v>1.39</v>
+    <v>5.9640000000000006E-3</v>
     <v>USD</v>
     <v>Danaher Corporation designs, manufactures and markets professional, medical, industrial, and commercial products and services. The Company’s segments include Biotechnology, which includes the bioprocessing and discovery and medical businesses and offers a range of tools, consumables and services; Life Sciences segment, which offers a range of instruments and consumables that are primarily used by customers to study the basic building blocks of life, including genes, proteins, metabolites, and cells, to understand the causes of disease, identify new therapies, and test and manufacture new drugs and vaccines; Diagnostics segment that offers clinical instruments, reagents, consumables, software, and services that hospitals, physicians’ offices, reference laboratories, and other critical care settings use to diagnose disease, and Environmental &amp; Applied Solutions segment, which offers products and services that help protect precious resources and keep global food and water supplies safe.</v>
     <v>79000</v>
@@ -2573,25 +2573,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2200 Pennsylvania Ave NW Ste 800W, WASHINGTON, DC, 20037-1701 US</v>
-    <v>236.14</v>
+    <v>235.57499999999999</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45114.958333344533</v>
+    <v>45117.973520312502</v>
     <v>0</v>
-    <v>232.66</v>
-    <v>171989500000</v>
+    <v>232.27010000000001</v>
+    <v>173015131636</v>
     <v>DANAHER CORPORATION</v>
     <v>DANAHER CORPORATION</v>
-    <v>232.88</v>
-    <v>25.081</v>
-    <v>234.4</v>
+    <v>232.56</v>
+    <v>25.230599999999999</v>
     <v>233.08</v>
-    <v>232.2</v>
+    <v>234.47</v>
     <v>737898800</v>
     <v>DHR</v>
     <v>DANAHER CORPORATION (XNYS:DHR)</v>
-    <v>198</v>
-    <v>3105440</v>
+    <v>2051619</v>
+    <v>2757822</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -2643,7 +2642,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2660,7 +2658,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2671,7 +2669,6 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -2744,15 +2741,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2797,7 +2792,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2805,7 +2799,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3167,10 +3160,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO94" sqref="AO94"/>
+      <selection pane="bottomRight" activeCell="AP101" sqref="AP101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5383,17 +5376,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>8.6322569161590441E-3</v>
       </c>
-      <c r="AT16" s="59">
+      <c r="AT16" s="55">
         <f>AU101/AM3</f>
-        <v>5.4650154110133142</v>
-      </c>
-      <c r="AU16" s="59">
+        <v>5.4976051487401101</v>
+      </c>
+      <c r="AU16" s="55">
         <f>AU101/AM28</f>
-        <v>24.213642123046601</v>
-      </c>
-      <c r="AV16" s="60">
+        <v>24.358036271434607</v>
+      </c>
+      <c r="AV16" s="56">
         <f>AU101/AM107</f>
-        <v>23.34593457309624</v>
+        <v>23.485154287498304</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5764,36 +5757,36 @@
       <c r="AM19" s="10">
         <v>10619000000</v>
       </c>
-      <c r="AN19" s="63">
+      <c r="AN19" s="59">
         <v>9455000000</v>
       </c>
-      <c r="AO19" s="63">
+      <c r="AO19" s="59">
         <v>10468000000</v>
       </c>
-      <c r="AP19" s="63">
+      <c r="AP19" s="59">
         <v>11392000000</v>
       </c>
-      <c r="AQ19" s="63">
+      <c r="AQ19" s="59">
         <v>13989000000</v>
       </c>
-      <c r="AR19" s="63">
+      <c r="AR19" s="59">
         <v>13978000000</v>
       </c>
       <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-13682000000</v>
       </c>
-      <c r="AT19" s="59">
+      <c r="AT19" s="55">
         <f>AU101/AN3</f>
-        <v>5.8436225876596906</v>
-      </c>
-      <c r="AU19" s="59">
+        <v>5.8784700882033158</v>
+      </c>
+      <c r="AU19" s="55">
         <f>AU101/AN28</f>
-        <v>24.807370546660898</v>
-      </c>
-      <c r="AV19" s="60">
+        <v>24.955305298716283</v>
+      </c>
+      <c r="AV19" s="56">
         <f>AU101/AN105</f>
-        <v>20.983468774123494</v>
+        <v>21.108600304872517</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6088,23 +6081,23 @@
       <c r="AM21" s="2">
         <v>0.33739999999999998</v>
       </c>
-      <c r="AN21" s="64">
+      <c r="AN21" s="60">
         <f>AN19/AN3</f>
         <v>0.3212489807012775</v>
       </c>
-      <c r="AO21" s="64">
+      <c r="AO21" s="60">
         <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
         <v>0.3326131164209456</v>
       </c>
-      <c r="AP21" s="64">
+      <c r="AP21" s="60">
         <f t="shared" si="4"/>
         <v>0.33660323838789741</v>
       </c>
-      <c r="AQ21" s="64">
+      <c r="AQ21" s="60">
         <f t="shared" si="4"/>
         <v>0.39006775785628645</v>
       </c>
-      <c r="AR21" s="64">
+      <c r="AR21" s="60">
         <f t="shared" si="4"/>
         <v>0.38001250577712531</v>
       </c>
@@ -6233,13 +6226,13 @@
       <c r="AM22" s="10">
         <v>8688000000</v>
       </c>
-      <c r="AU22" s="61">
+      <c r="AU22" s="57">
         <f>(-1*AM98)/AU101</f>
-        <v>4.756104297064646E-3</v>
-      </c>
-      <c r="AV22" s="62">
+        <v>4.7279101675393297E-3</v>
+      </c>
+      <c r="AV22" s="58">
         <f>AM107/AU101</f>
-        <v>4.2834010215739918E-2</v>
+        <v>4.2580090714257023E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6955,19 +6948,19 @@
       <c r="AM28" s="11">
         <v>7103000000</v>
       </c>
-      <c r="AN28" s="65">
+      <c r="AN28" s="61">
         <v>6933000000</v>
       </c>
-      <c r="AO28" s="65">
+      <c r="AO28" s="61">
         <v>7642000000</v>
       </c>
-      <c r="AP28" s="65">
+      <c r="AP28" s="61">
         <v>8400000000</v>
       </c>
-      <c r="AQ28" s="65">
+      <c r="AQ28" s="61">
         <v>9567000000</v>
       </c>
-      <c r="AR28" s="65">
+      <c r="AR28" s="61">
         <v>10651000000</v>
       </c>
     </row>
@@ -7263,23 +7256,23 @@
       <c r="AM30" s="2">
         <v>0.22570000000000001</v>
       </c>
-      <c r="AN30" s="66">
+      <c r="AN30" s="62">
         <f>AN28/AN3</f>
         <v>0.23555993476488177</v>
       </c>
-      <c r="AO30" s="66">
+      <c r="AO30" s="62">
         <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
         <v>0.24281901372648704</v>
       </c>
-      <c r="AP30" s="66">
+      <c r="AP30" s="62">
         <f t="shared" si="6"/>
         <v>0.2481976125753457</v>
       </c>
-      <c r="AQ30" s="66">
+      <c r="AQ30" s="62">
         <f t="shared" si="6"/>
         <v>0.2667651897498815</v>
       </c>
-      <c r="AR30" s="66">
+      <c r="AR30" s="62">
         <f t="shared" si="6"/>
         <v>0.28956311339477475</v>
       </c>
@@ -7402,19 +7395,19 @@
       <c r="AM31" s="12">
         <v>9.94</v>
       </c>
-      <c r="AN31" s="67">
+      <c r="AN31" s="63">
         <v>9.4</v>
       </c>
-      <c r="AO31" s="67">
+      <c r="AO31" s="63">
         <v>10.36</v>
       </c>
-      <c r="AP31" s="67">
+      <c r="AP31" s="63">
         <v>11.38</v>
       </c>
-      <c r="AQ31" s="67">
+      <c r="AQ31" s="63">
         <v>12.97</v>
       </c>
-      <c r="AR31" s="67">
+      <c r="AR31" s="63">
         <v>14.43</v>
       </c>
     </row>
@@ -13678,10 +13671,10 @@
       <c r="AM83" s="1">
         <v>-486000000</v>
       </c>
-      <c r="AT83" s="32" t="s">
+      <c r="AT83" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="AU83" s="33"/>
+      <c r="AU83" s="67"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13801,10 +13794,10 @@
       <c r="AM84" s="1">
         <v>5000000</v>
       </c>
-      <c r="AT84" s="34" t="s">
+      <c r="AT84" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AU84" s="34"/>
+      <c r="AU84" s="68"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13924,10 +13917,10 @@
       <c r="AM85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT85" s="35" t="s">
+      <c r="AT85" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="AU85" s="36">
+      <c r="AU85" s="33">
         <f>AM17</f>
         <v>211000000</v>
       </c>
@@ -14050,10 +14043,10 @@
       <c r="AM86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT86" s="35" t="s">
+      <c r="AT86" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="AU86" s="36">
+      <c r="AU86" s="33">
         <f>AM56</f>
         <v>591000000</v>
       </c>
@@ -14176,10 +14169,10 @@
       <c r="AM87" s="10">
         <v>8519000000</v>
       </c>
-      <c r="AT87" s="35" t="s">
+      <c r="AT87" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="AU87" s="36">
+      <c r="AU87" s="33">
         <f>AM61</f>
         <v>19086000000</v>
       </c>
@@ -14302,10 +14295,10 @@
       <c r="AM88" s="1">
         <v>-1152000000</v>
       </c>
-      <c r="AT88" s="37" t="s">
+      <c r="AT88" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="AU88" s="38">
+      <c r="AU88" s="35">
         <f>AU85/(AU86+AU87)</f>
         <v>1.0723179346445089E-2</v>
       </c>
@@ -14466,10 +14459,10 @@
         <f t="shared" si="9"/>
         <v>3.6605128531028569E-2</v>
       </c>
-      <c r="AT89" s="35" t="s">
+      <c r="AT89" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="36">
+      <c r="AU89" s="33">
         <f>AM27</f>
         <v>1083000000</v>
       </c>
@@ -14592,10 +14585,10 @@
       <c r="AM90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT90" s="35" t="s">
+      <c r="AT90" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="36">
+      <c r="AU90" s="33">
         <f>AM25</f>
         <v>8292000000</v>
       </c>
@@ -14718,10 +14711,10 @@
       <c r="AM91" s="1">
         <v>-523000000</v>
       </c>
-      <c r="AT91" s="37" t="s">
+      <c r="AT91" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="AU91" s="38">
+      <c r="AU91" s="35">
         <f>AU89/AU90</f>
         <v>0.13060781476121563</v>
       </c>
@@ -14844,10 +14837,10 @@
       <c r="AM92" s="1">
         <v>289000000</v>
       </c>
-      <c r="AT92" s="37" t="s">
+      <c r="AT92" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="AU92" s="38">
+      <c r="AU92" s="35">
         <f>AU88*(1-AU91)</f>
         <v>9.3226483247132955E-3</v>
       </c>
@@ -14970,10 +14963,10 @@
       <c r="AM93" s="1">
         <v>-848000000</v>
       </c>
-      <c r="AT93" s="34" t="s">
+      <c r="AT93" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="AU93" s="34"/>
+      <c r="AU93" s="68"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15093,10 +15086,10 @@
       <c r="AM94" s="10">
         <v>-2234000000</v>
       </c>
-      <c r="AT94" s="35" t="s">
+      <c r="AT94" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="AU94" s="39">
+      <c r="AU94" s="36">
         <f>[1]Treasuries!$C$8</f>
         <v>4.0480000000000002E-2</v>
       </c>
@@ -15219,10 +15212,10 @@
       <c r="AM95" s="1">
         <v>-965000000</v>
       </c>
-      <c r="AT95" s="40" t="s">
+      <c r="AT95" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="AU95" s="41" cm="1">
+      <c r="AU95" s="38" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
         <v>0.80079999999999996</v>
       </c>
@@ -15345,10 +15338,10 @@
       <c r="AM96" s="1">
         <v>31000000</v>
       </c>
-      <c r="AT96" s="35" t="s">
+      <c r="AT96" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="AU96" s="42">
+      <c r="AU96" s="39">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15470,10 +15463,10 @@
       <c r="AM97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT97" s="37" t="s">
+      <c r="AT97" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="AU97" s="38">
+      <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
         <v>7.5330815999999995E-2</v>
       </c>
@@ -15596,10 +15589,10 @@
       <c r="AM98" s="1">
         <v>-818000000</v>
       </c>
-      <c r="AT98" s="34" t="s">
+      <c r="AT98" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="AU98" s="34"/>
+      <c r="AU98" s="68"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15719,10 +15712,10 @@
       <c r="AM99" s="1">
         <v>-818000000</v>
       </c>
-      <c r="AT99" s="35" t="s">
+      <c r="AT99" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AU99" s="36">
+      <c r="AU99" s="33">
         <f>AU86+AU87</f>
         <v>19677000000</v>
       </c>
@@ -15845,12 +15838,12 @@
       <c r="AM100" s="10">
         <v>-2570000000</v>
       </c>
-      <c r="AT100" s="37" t="s">
+      <c r="AT100" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="AU100" s="38">
+      <c r="AU100" s="35">
         <f>AU99/AU103</f>
-        <v>0.10266269796756344</v>
+        <v>0.10211626096477214</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15971,12 +15964,12 @@
       <c r="AM101" s="1">
         <v>-306000000</v>
       </c>
-      <c r="AT101" s="40" t="s">
+      <c r="AT101" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="AU101" s="43" cm="1">
+      <c r="AU101" s="40" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>171989500000</v>
+        <v>173015131636</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16097,12 +16090,12 @@
       <c r="AM102" s="10">
         <v>3409000000</v>
       </c>
-      <c r="AT102" s="37" t="s">
+      <c r="AT102" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="AU102" s="38">
+      <c r="AU102" s="35">
         <f>AU101/AU103</f>
-        <v>0.89733730203243656</v>
+        <v>0.89788373903522789</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16223,12 +16216,12 @@
       <c r="AM103" s="1">
         <v>2586000000</v>
       </c>
-      <c r="AT103" s="37" t="s">
+      <c r="AT103" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AU103" s="44">
+      <c r="AU103" s="41">
         <f>AU99+AU101</f>
-        <v>191666500000</v>
+        <v>192692131636</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16349,10 +16342,10 @@
       <c r="AM104" s="11">
         <v>5995000000</v>
       </c>
-      <c r="AT104" s="34" t="s">
+      <c r="AT104" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="AU104" s="34"/>
+      <c r="AU104" s="68"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16533,12 +16526,12 @@
       <c r="AS105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="AT105" s="45" t="s">
+      <c r="AT105" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AU105" s="46">
+      <c r="AU105" s="43">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.8554239418559745E-2</v>
+        <v>6.8590308723863971E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16547,151 +16540,151 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="12">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15" t="e">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H106" s="15" t="e">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="15" t="e">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="12"/>
         <v>1.4487179487179489</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="12"/>
         <v>-5.8638743455497355E-2</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.2791991101223581</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.44173913043478263</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.30036188178528356</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="12"/>
         <v>-2.3205009276437849</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="12"/>
         <v>-1.9322093431682474</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.5966164280331574</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.24577219156939845</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.22169748771515052</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.21132021639993992</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.17423044773368179</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.18018445236615754</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.30200582858779135</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="12"/>
         <v>5.2612013096424715E-2</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.12235728959415093</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="12"/>
         <v>-3.1802508458209755E-2</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.15799668421317059</v>
       </c>
       <c r="AB106" s="15">
-        <f>(AB107/AA107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.22751353357725113</v>
       </c>
       <c r="AC106" s="15">
-        <f>(AC107/AB107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.29012355375434806</v>
       </c>
       <c r="AD106" s="15">
-        <f>(AD107/AC107)-1</f>
+        <f t="shared" si="12"/>
         <v>2.6076368924814908E-2</v>
       </c>
       <c r="AE106" s="15">
-        <f>(AE107/AD107)-1</f>
+        <f t="shared" si="12"/>
         <v>4.1894653569780393E-2</v>
       </c>
       <c r="AF106" s="15">
-        <f>(AF107/AE107)-1</f>
+        <f t="shared" si="12"/>
         <v>2.4992881774177356E-3</v>
       </c>
       <c r="AG106" s="15">
-        <f>(AG107/AF107)-1</f>
+        <f t="shared" si="12"/>
         <v>-7.466548851300181E-2</v>
       </c>
       <c r="AH106" s="15">
-        <f>(AH107/AG107)-1</f>
+        <f t="shared" si="12"/>
         <v>-2.5237023395402791E-2</v>
       </c>
       <c r="AI106" s="15">
-        <f>(AI107/AH107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.177769225386607</v>
       </c>
       <c r="AJ106" s="15">
-        <f>(AJ107/AI107)-1</f>
+        <f t="shared" si="12"/>
         <v>-1.4912515224430378E-2</v>
       </c>
       <c r="AK106" s="15">
-        <f>(AK107/AJ107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.63354542987244056</v>
       </c>
       <c r="AL106" s="15">
-        <f>(AL107/AK107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.30404282813365335</v>
       </c>
       <c r="AM106" s="15">
-        <f>(AM107/AL107)-1</f>
+        <f t="shared" si="12"/>
         <v>4.2893544733861866E-2</v>
       </c>
       <c r="AN106" s="31">
@@ -16712,10 +16705,10 @@
       <c r="AS106" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AT106" s="47" t="s">
+      <c r="AT106" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="AU106" s="48">
+      <c r="AU106" s="45">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>3.3040067483358214E-2</v>
       </c>
@@ -16842,135 +16835,135 @@
       <c r="AO107" s="28"/>
       <c r="AP107" s="28"/>
       <c r="AQ107" s="28"/>
-      <c r="AR107" s="68">
+      <c r="AR107" s="64">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>215305195286.49008</v>
+        <v>215145371053.50348</v>
       </c>
       <c r="AS107" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="AT107" s="49" t="s">
+      <c r="AT107" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="AU107" s="50">
+      <c r="AU107" s="47">
         <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="68">
-        <f t="shared" ref="AN108:AQ108" si="12">AN107+AN106</f>
+      <c r="AN108" s="64">
+        <f t="shared" ref="AN108:AQ108" si="13">AN107+AN106</f>
         <v>6998000000</v>
       </c>
-      <c r="AO108" s="68">
-        <f t="shared" si="12"/>
+      <c r="AO108" s="64">
+        <f t="shared" si="13"/>
         <v>7562000000</v>
       </c>
-      <c r="AP108" s="68">
-        <f t="shared" si="12"/>
+      <c r="AP108" s="64">
+        <f t="shared" si="13"/>
         <v>8304000000</v>
       </c>
-      <c r="AQ108" s="68">
-        <f t="shared" si="12"/>
+      <c r="AQ108" s="64">
+        <f t="shared" si="13"/>
         <v>10454000000</v>
       </c>
-      <c r="AR108" s="68">
+      <c r="AR108" s="64">
         <f>AR107+AR106</f>
-        <v>225554195286.49008</v>
+        <v>225394371053.50348</v>
       </c>
       <c r="AS108" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="AT108" s="51" t="s">
+      <c r="AT108" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AU108" s="48">
+      <c r="AU108" s="45">
         <f>AU105</f>
-        <v>6.8554239418559745E-2</v>
+        <v>6.8590308723863971E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="52" t="s">
+      <c r="AN109" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="AO109" s="52"/>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="53" t="s">
+      <c r="AN110" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AO110" s="43">
+      <c r="AO110" s="40">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>189904414566.18143</v>
+        <v>189759945139.3754</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="53" t="s">
+      <c r="AN111" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="AO111" s="43">
+      <c r="AO111" s="40">
         <f>AM40</f>
         <v>5995000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="53" t="s">
+      <c r="AN112" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="AO112" s="43">
+      <c r="AO112" s="40">
         <f>AU99</f>
         <v>19677000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="53" t="s">
+      <c r="AN113" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="AO113" s="43">
+      <c r="AO113" s="40">
         <f>AO110+AO111-AO112</f>
-        <v>176222414566.18143</v>
+        <v>176077945139.3754</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="53" t="s">
+      <c r="AN114" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="AO114" s="53">
+      <c r="AO114" s="49">
         <f>AM34*(1+(5*AS16))</f>
         <v>768601234.47912991</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="54" t="s">
+      <c r="AN115" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="AO115" s="55">
+      <c r="AO115" s="51">
         <f>AO113/AO114</f>
-        <v>229.27677794533449</v>
+        <v>229.08881386158703</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="53" t="s">
+      <c r="AN116" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AO116" s="56" cm="1">
+      <c r="AO116" s="52" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>233.08</v>
+        <v>234.47</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="54" t="s">
+      <c r="AN117" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="AO117" s="57">
+      <c r="AO117" s="53">
         <f>AO115/AO116-1</f>
-        <v>-1.6317238950856017E-2</v>
+        <v>-2.2950424951648229E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="54" t="s">
+      <c r="AN118" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="AO118" s="58" t="str">
+      <c r="AO118" s="54" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Healthcare/Danaher.xlsx
+++ b/Healthcare/Danaher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C40AB-02FB-9546-9309-0C77F7B73DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001110B4-D610-984E-ADE7-899EE93C3B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1143,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1239,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1287,247 +1453,264 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1726,10 +1909,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>249.5498</v>
-    <v>183.245</v>
-    <v>0.80330000000000001</v>
-    <v>-3.86</v>
-    <v>-1.9610000000000002E-2</v>
+    <v>182.09</v>
+    <v>0.80500000000000005</v>
+    <v>-1.3</v>
+    <v>-6.6049999999999998E-3</v>
+    <v>-0.02</v>
+    <v>-1.0229999999999999E-4</v>
     <v>USD</v>
     <v>Danaher Corporation designs, manufactures and markets professional, medical, industrial, and commercial products and services. The Company’s Biotechnology segment includes the bioprocessing and discovery and medical businesses and offers a range of tools, consumables and services that are used by customers to advance and accelerate the research, development, manufacture and delivery of biological medicines. Its Life Sciences segment offers a range of instruments and consumables that are used by customers to study the basic building blocks of life, including deoxyribonucleic acid (DNA)and ribonucleic acid (RNA), nucleic acid, proteins, metabolites and cells, in order to understand the causes of disease, identify new therapies, and test and manufacture new drugs, and vaccines. Its Diagnostics segment offers clinical instruments, reagents, consumables, software that hospitals, physicians’ offices, reference laboratories and other critical care settings use to diagnose disease.</v>
     <v>79000</v>
@@ -1737,24 +1922,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2200 Pennsylvania Ave NW Ste 800W, WASHINGTON, DC, 20037-1701 US</v>
-    <v>193.76</v>
+    <v>199.35</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45224.821557765623</v>
+    <v>45240.020216353907</v>
     <v>0</v>
-    <v>183.245</v>
-    <v>142487188258</v>
+    <v>195.3</v>
+    <v>144475026592</v>
     <v>DANAHER CORPORATION</v>
     <v>DANAHER CORPORATION</v>
-    <v>193.04</v>
-    <v>24.804099999999998</v>
-    <v>196.84</v>
-    <v>192.98</v>
-    <v>738352100</v>
+    <v>198.75</v>
+    <v>24.637699999999999</v>
+    <v>196.82</v>
+    <v>195.52</v>
+    <v>195.5</v>
+    <v>738927100</v>
     <v>DHR</v>
     <v>DANAHER CORPORATION (XNYS:DHR)</v>
-    <v>5950876</v>
-    <v>3192946</v>
+    <v>2316923</v>
+    <v>3507282</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -1786,6 +1972,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1806,6 +1994,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1822,7 +2011,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1833,13 +2022,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1905,13 +2097,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1956,6 +2154,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1963,6 +2164,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2346,20 +2550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY199"/>
+  <dimension ref="A1:XEY196"/>
   <sheetViews>
     <sheetView topLeftCell="A168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="20" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2418,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -2559,7 +2763,7 @@
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2618,7 +2822,7 @@
         <v>7157000000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2677,7 +2881,7 @@
         <v>3116000000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -2736,7 +2940,7 @@
         <v>3116000000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>22</v>
       </c>
@@ -2795,7 +2999,7 @@
         <v>4041000000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>58</v>
       </c>
@@ -2854,7 +3058,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -2913,7 +3117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -2972,7 +3176,7 @@
         <v>2612000000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -3119,7 +3323,7 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3266,7 +3470,7 @@
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3325,7 +3529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
@@ -3384,7 +3588,7 @@
         <v>1429000000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>59</v>
       </c>
@@ -3525,7 +3729,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3584,7 +3788,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -3643,7 +3847,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -3702,7 +3906,7 @@
         <v>67000000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3761,7 +3965,7 @@
         <v>59000000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -3820,7 +4024,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -3879,7 +4083,7 @@
         <v>1392000000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
@@ -3938,7 +4142,7 @@
         <v>286000000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
@@ -3997,7 +4201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -4056,7 +4260,7 @@
         <v>1106000000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -4115,7 +4319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -4174,7 +4378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -4233,7 +4437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -4292,7 +4496,7 @@
         <v>1106000000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -4351,7 +4555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>44</v>
       </c>
@@ -4410,7 +4614,7 @@
         <v>1106000000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>60</v>
       </c>
@@ -4628,7 +4832,7 @@
         <v>1.496878448023017E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4687,7 +4891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -4746,7 +4950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -4805,7 +5009,7 @@
         <v>1106000000</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -4864,7 +5068,7 @@
         <v>737300000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -4923,7 +5127,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -4982,7 +5186,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -5041,7 +5245,7 @@
         <v>744700000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -5100,7 +5304,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -5159,7 +5363,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -5218,7 +5422,7 @@
         <v>1991000000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -5277,7 +5481,7 @@
         <v>32.15</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -5336,7 +5540,7 @@
         <v>1429000000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -5395,7 +5599,7 @@
         <v>1429000000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>61</v>
       </c>
@@ -5454,7 +5658,7 @@
         <v>88358</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>62</v>
       </c>
@@ -5513,7 +5717,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>63</v>
       </c>
@@ -5572,7 +5776,7 @@
         <v>562000000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>24</v>
       </c>
@@ -5631,7 +5835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
@@ -5690,7 +5894,7 @@
         <v>17461000000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
@@ -5749,7 +5953,7 @@
         <v>8575000000</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
@@ -5808,7 +6012,7 @@
         <v>8575000000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
@@ -5867,7 +6071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
@@ -5926,7 +6130,7 @@
         <v>4199000000</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
@@ -5985,7 +6189,7 @@
         <v>4199000000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
@@ -6044,7 +6248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
@@ -6103,7 +6307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
@@ -6162,7 +6366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
@@ -6221,7 +6425,7 @@
         <v>3183000000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
@@ -6280,7 +6484,7 @@
         <v>1135000000</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
@@ -6339,7 +6543,7 @@
         <v>528000000</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
@@ -6398,7 +6602,7 @@
         <v>1520000000</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
@@ -6457,7 +6661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
@@ -6516,7 +6720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
@@ -6575,7 +6779,7 @@
         <v>1504000000</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
@@ -6634,7 +6838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
@@ -6693,7 +6897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
@@ -6752,7 +6956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -6811,7 +7015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>84</v>
       </c>
@@ -6870,7 +7074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>85</v>
       </c>
@@ -6929,7 +7133,7 @@
         <v>67441000000</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>86</v>
       </c>
@@ -6988,7 +7192,7 @@
         <v>4176000000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
@@ -7047,7 +7251,7 @@
         <v>8296000000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>88</v>
       </c>
@@ -7106,7 +7310,7 @@
         <v>4120000000</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>89</v>
       </c>
@@ -7165,7 +7369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>90</v>
       </c>
@@ -7224,7 +7428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>91</v>
       </c>
@@ -7283,7 +7487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
@@ -7342,7 +7546,7 @@
         <v>63265000000</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>93</v>
       </c>
@@ -7401,7 +7605,7 @@
         <v>58893000000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>94</v>
       </c>
@@ -7460,7 +7664,7 @@
         <v>39576000000</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
@@ -7519,7 +7723,7 @@
         <v>19317000000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -7578,7 +7782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>97</v>
       </c>
@@ -7637,7 +7841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>98</v>
       </c>
@@ -7696,7 +7900,7 @@
         <v>4372000000</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>99</v>
       </c>
@@ -7755,7 +7959,7 @@
         <v>84902000000</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>100</v>
       </c>
@@ -7814,7 +8018,7 @@
         <v>6814000000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>101</v>
       </c>
@@ -7873,7 +8077,7 @@
         <v>1956000000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>102</v>
       </c>
@@ -7932,7 +8136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>103</v>
       </c>
@@ -7991,7 +8195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>104</v>
       </c>
@@ -8050,7 +8254,7 @@
         <v>4858000000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>105</v>
       </c>
@@ -8109,7 +8313,7 @@
         <v>1590000000</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>106</v>
       </c>
@@ -8168,7 +8372,7 @@
         <v>1590000000</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>107</v>
       </c>
@@ -8227,7 +8431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>108</v>
       </c>
@@ -8286,7 +8490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -8345,7 +8549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>110</v>
       </c>
@@ -8404,7 +8608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>111</v>
       </c>
@@ -8463,7 +8667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>112</v>
       </c>
@@ -8522,7 +8726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>113</v>
       </c>
@@ -8581,7 +8785,7 @@
         <v>8404000000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>114</v>
       </c>
@@ -8640,7 +8844,7 @@
         <v>18285000000</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>115</v>
       </c>
@@ -8699,7 +8903,7 @@
         <v>18285000000</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>116</v>
       </c>
@@ -8758,7 +8962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>117</v>
       </c>
@@ -8817,7 +9021,7 @@
         <v>6489000000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>118</v>
       </c>
@@ -8876,7 +9080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>119</v>
       </c>
@@ -8935,7 +9139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
@@ -8994,7 +9198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
@@ -9053,7 +9257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>110</v>
       </c>
@@ -9112,7 +9316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>120</v>
       </c>
@@ -9171,7 +9375,7 @@
         <v>6489000000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>121</v>
       </c>
@@ -9230,7 +9434,7 @@
         <v>24774000000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>122</v>
       </c>
@@ -9289,7 +9493,7 @@
         <v>33178000000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>123</v>
       </c>
@@ -9348,7 +9552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>124</v>
       </c>
@@ -9407,7 +9611,7 @@
         <v>13948000000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>125</v>
       </c>
@@ -9466,7 +9670,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>126</v>
       </c>
@@ -9525,7 +9729,7 @@
         <v>13939000000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>127</v>
       </c>
@@ -9584,7 +9788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>128</v>
       </c>
@@ -9643,7 +9847,7 @@
         <v>41344000000</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>129</v>
       </c>
@@ -9702,7 +9906,7 @@
         <v>-3576000000</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>130</v>
       </c>
@@ -9761,7 +9965,7 @@
         <v>51716000000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>131</v>
       </c>
@@ -9820,7 +10024,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>132</v>
       </c>
@@ -9879,7 +10083,7 @@
         <v>51724000000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>133</v>
       </c>
@@ -9938,7 +10142,7 @@
         <v>84902000000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
         <v>134</v>
       </c>
@@ -10079,7 +10283,7 @@
       <c r="AC129" s="13"/>
       <c r="AD129" s="13"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>135</v>
       </c>
@@ -10138,7 +10342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>136</v>
       </c>
@@ -10197,7 +10401,7 @@
         <v>11300000000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>137</v>
       </c>
@@ -10256,7 +10460,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>138</v>
       </c>
@@ -10315,7 +10519,7 @@
         <v>-27.56</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>139</v>
       </c>
@@ -10374,7 +10578,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>140</v>
       </c>
@@ -10433,7 +10637,7 @@
         <v>82.41</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>141</v>
       </c>
@@ -10492,7 +10696,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>24</v>
       </c>
@@ -10551,7 +10755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>142</v>
       </c>
@@ -10610,7 +10814,7 @@
         <v>1106000000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>143</v>
       </c>
@@ -10669,7 +10873,7 @@
         <v>562000000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>144</v>
       </c>
@@ -10728,7 +10932,7 @@
         <v>141000000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
         <v>145</v>
       </c>
@@ -10875,7 +11079,7 @@
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>146</v>
       </c>
@@ -10934,7 +11138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>147</v>
       </c>
@@ -10993,7 +11197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>148</v>
       </c>
@@ -11052,7 +11256,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>149</v>
       </c>
@@ -11111,7 +11315,7 @@
         <v>117000000</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>150</v>
       </c>
@@ -11170,7 +11374,7 @@
         <v>134000000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>151</v>
       </c>
@@ -11229,7 +11433,7 @@
         <v>129000000</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>152</v>
       </c>
@@ -11288,7 +11492,7 @@
         <v>366000000</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>153</v>
       </c>
@@ -11347,7 +11551,7 @@
         <v>-512000000</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>154</v>
       </c>
@@ -11406,7 +11610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>155</v>
       </c>
@@ -11465,7 +11669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>156</v>
       </c>
@@ -11524,7 +11728,7 @@
         <v>1926000000</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>157</v>
       </c>
@@ -11583,7 +11787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>158</v>
       </c>
@@ -11642,7 +11846,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>159</v>
       </c>
@@ -11701,7 +11905,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>160</v>
       </c>
@@ -11760,7 +11964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>161</v>
       </c>
@@ -11819,7 +12023,7 @@
         <v>-341000000</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>162</v>
       </c>
@@ -11878,7 +12082,7 @@
         <v>-341000000</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>163</v>
       </c>
@@ -11937,7 +12141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>164</v>
       </c>
@@ -11996,7 +12200,7 @@
         <v>-98000000</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>165</v>
       </c>
@@ -12055,7 +12259,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>166</v>
       </c>
@@ -12114,7 +12318,7 @@
         <v>-101000000</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>167</v>
       </c>
@@ -12173,7 +12377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>168</v>
       </c>
@@ -12232,7 +12436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>169</v>
       </c>
@@ -12291,7 +12495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>170</v>
       </c>
@@ -12350,7 +12554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>171</v>
       </c>
@@ -12409,7 +12613,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>155</v>
       </c>
@@ -12468,7 +12672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>172</v>
       </c>
@@ -12527,7 +12731,7 @@
         <v>-431000000</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>173</v>
       </c>
@@ -12586,7 +12790,7 @@
         <v>-218000000</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>174</v>
       </c>
@@ -12645,7 +12849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>175</v>
       </c>
@@ -12704,7 +12908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>176</v>
       </c>
@@ -12763,7 +12967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>177</v>
       </c>
@@ -12822,7 +13026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>178</v>
       </c>
@@ -12881,7 +13085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>179</v>
       </c>
@@ -12940,7 +13144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>180</v>
       </c>
@@ -12999,7 +13203,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>155</v>
       </c>
@@ -13058,7 +13262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>181</v>
       </c>
@@ -13117,7 +13321,7 @@
         <v>-208000000</v>
       </c>
     </row>
-    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>182</v>
       </c>
@@ -13176,7 +13380,7 @@
         <v>-91000000</v>
       </c>
     </row>
-    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>183</v>
       </c>
@@ -13235,7 +13439,7 @@
         <v>1287000000</v>
       </c>
     </row>
-    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>54</v>
       </c>
@@ -13294,7 +13498,7 @@
         <v>1991000000</v>
       </c>
     </row>
-    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>55</v>
       </c>
@@ -13353,7 +13557,7 @@
         <v>32.15</v>
       </c>
     </row>
-    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>184</v>
       </c>
@@ -13412,7 +13616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>185</v>
       </c>
@@ -13471,7 +13675,7 @@
         <v>1585000000</v>
       </c>
     </row>
-    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="32" t="s">
         <v>186</v>
       </c>
@@ -15412,7 +15616,7 @@
       <c r="XET190" s="29"/>
       <c r="XEY190" s="3"/>
     </row>
-    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>187</v>
       </c>
@@ -15471,7 +15675,7 @@
         <v>-79000000</v>
       </c>
     </row>
-    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>188</v>
       </c>
@@ -15530,7 +15734,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>189</v>
       </c>
@@ -15589,7 +15793,7 @@
         <v>18.93</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>190</v>
       </c>
@@ -15648,12 +15852,9 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
     </row>
-    <row r="197" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -15666,8 +15867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FDBCE-55B5-D547-969B-4D266F8E443F}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15675,1727 +15876,1789 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="e" vm="1">
+    <row r="1" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-    </row>
-    <row r="2" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+    </row>
+    <row r="2" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="A3" s="70" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>142487188258</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>144475026592</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="72">
         <f>Financials!O8*0.01</f>
         <v>0.59079999999999999</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="72">
         <f>SUM(C11:E11)/3</f>
         <v>0.21145709248573441</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="74">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>9.4934986773774765E-3</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="43">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>192332784688.48416</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="75">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>191737804603.04242</v>
+      </c>
+      <c r="J3" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46" t="s">
+      <c r="K3" s="77">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>5.7380159018147166E-3</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
+      <c r="A4" s="79">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-11300000000</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="39">
         <f>Financials!O17*0.01</f>
         <v>0.2482</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="39">
         <f>SUM(C13:E13)/3</f>
         <v>0.36568261030677945</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="82">
         <f>A5*(1+(5*G3))</f>
-        <v>773399823.42394447</v>
-      </c>
-      <c r="H4" s="53" t="s">
+        <v>774002117.23264194</v>
+      </c>
+      <c r="H4" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="48">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>166809658602.63556</v>
-      </c>
-      <c r="J4" s="51" t="s">
+      <c r="I4" s="83">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>166272970542.19888</v>
+      </c>
+      <c r="J4" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="54">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>5.8180669443693329E-3</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="55" t="s">
+      <c r="K4" s="84" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>-6.6049999999999998E-3</v>
+      </c>
+      <c r="L4" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="45"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" cm="1">
+      <c r="A5" s="79" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>738352100</v>
-      </c>
-      <c r="B5" s="49" t="s">
+        <v>738927100</v>
+      </c>
+      <c r="B5" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="57">
-        <f>Financials!O34*0.01</f>
-        <v>0.20949999999999999</v>
-      </c>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="39">
+        <f>F14</f>
+        <v>0.22949730567653354</v>
+      </c>
+      <c r="D5" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="50">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="39">
+        <f>SUM(C16:E16)/3</f>
         <v>0.32936967094070174</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="82">
         <f>Financials!O56</f>
         <v>8575000000</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="83">
         <f>I4+G5-G6</f>
-        <v>155509658602.63556</v>
-      </c>
-      <c r="J5" s="51" t="s">
+        <v>154972970542.19888</v>
+      </c>
+      <c r="J5" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="58" cm="1">
+      <c r="K5" s="87" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>192.98</v>
-      </c>
-      <c r="L5" s="39" t="s">
+        <v>195.52</v>
+      </c>
+      <c r="L5" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="59" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="103">
         <f>Financials!O21</f>
         <v>241000000</v>
       </c>
-      <c r="P5" s="45"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61">
+      <c r="A6" s="89">
         <f>O20/F10</f>
-        <v>5.2589941779729825</v>
-      </c>
-      <c r="B6" s="49" t="s">
+        <v>5.3323623899018235</v>
+      </c>
+      <c r="B6" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="50">
-        <f>Financials!O190</f>
-        <v>0.24415486944920278</v>
-      </c>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="39">
+        <f>F17</f>
+        <v>0.22739351886026427</v>
+      </c>
+      <c r="D6" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="39">
         <f>Financials!O33/Financials!O126</f>
         <v>0.12296032789420772</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="82">
         <f>Financials!O96+Financials!O105</f>
         <v>19875000000</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="84">
         <f>N25</f>
-        <v>6.885937680994153E-2</v>
-      </c>
-      <c r="J6" s="53" t="s">
+        <v>6.9010991960898299E-2</v>
+      </c>
+      <c r="J6" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="90">
         <f>I5/G4</f>
-        <v>201.07278782942242</v>
-      </c>
-      <c r="L6" s="65" t="s">
+        <v>200.22292845436576</v>
+      </c>
+      <c r="L6" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="66" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="103">
         <f>Financials!O96</f>
         <v>1590000000</v>
       </c>
-      <c r="P6" s="45"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68">
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92">
         <f>O20/F12</f>
-        <v>22.91527633612094</v>
-      </c>
-      <c r="B7" s="69" t="s">
+        <v>23.234967287230621</v>
+      </c>
+      <c r="B7" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="70">
-        <f>F14/O21</f>
-        <v>3.7946027126771198E-2</v>
-      </c>
-      <c r="D7" s="71" t="s">
+      <c r="C7" s="94">
+        <f>F15/O21</f>
+        <v>3.7487064211402424E-2</v>
+      </c>
+      <c r="D7" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="95">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>7.8918699981843324E-2</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="96">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.38425102466939914</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="98">
         <v>0.02</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="100">
         <f>K6/K5-1</f>
-        <v>4.1935888845592517E-2</v>
-      </c>
-      <c r="L7" s="78" t="s">
+        <v>2.4053439312427205E-2</v>
+      </c>
+      <c r="L7" s="101" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="66" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="103">
         <f>Financials!O105</f>
         <v>18285000000</v>
       </c>
-      <c r="P7" s="45"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="79"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="80" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="81">
+      <c r="O8" s="105">
         <f>O5/(O6+O7)</f>
         <v>1.2125786163522013E-2</v>
       </c>
-      <c r="P8" s="45"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50">
         <v>2019</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="50">
         <v>2020</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="50">
         <v>2021</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="51">
         <v>2022</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="52">
         <v>2023</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="53">
         <v>2024</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="53">
         <v>2025</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="53">
         <v>2026</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="54">
         <v>2027</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="66" t="s">
+      <c r="K9" s="55"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="103">
         <f>Financials!O25</f>
         <v>954000000</v>
       </c>
-      <c r="P9" s="45"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="89">
+      <c r="B10" s="57">
         <v>17911100000</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="57">
         <v>22284000000</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="57">
         <v>29453000000</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="58">
         <v>31471000000</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="57">
         <v>27094000000</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="57">
         <v>24287000000</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="57">
         <v>26485000000</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="57">
         <v>29636000000</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="58">
         <v>32184000000</v>
       </c>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="66" t="s">
+      <c r="N10" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="103">
         <f>Financials!O24</f>
         <v>7314000000</v>
       </c>
-      <c r="P10" s="45"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93">
+      <c r="A11" s="60"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.24414469239745196</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="42">
         <f t="shared" si="0"/>
         <v>0.32171064440854424</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="42">
         <f t="shared" si="0"/>
         <v>6.851594065120703E-2</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="43">
         <f t="shared" si="0"/>
         <v>-0.13908042324679859</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="42">
         <f t="shared" si="0"/>
         <v>-0.10360227356610319</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="42">
         <f t="shared" si="0"/>
         <v>9.0501091118705412E-2</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="42">
         <f t="shared" si="0"/>
         <v>0.11897300358693608</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="61">
         <f t="shared" si="0"/>
         <v>8.5976515049264401E-2</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="61">
         <f>SUM(F11:J11)/5</f>
         <v>1.0553582588400823E-2</v>
       </c>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="66" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="96">
+      <c r="O11" s="106">
         <f>O9/O10</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="P11" s="45"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="57">
         <v>3008200000</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="57">
         <v>3646000000</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="57">
         <v>6433000000</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="57">
         <v>7209000000</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="62">
         <v>6218000000</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="57">
         <v>6085000000</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="57">
         <v>6877000000</v>
       </c>
-      <c r="I12" s="89">
+      <c r="I12" s="57">
         <v>8382000000</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="58">
         <v>9387000000</v>
       </c>
-      <c r="K12" s="91" t="s">
+      <c r="K12" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="97" t="s">
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="98">
+      <c r="O12" s="106">
         <f>O8*(1-O11)</f>
         <v>1.054416188132349E-2</v>
       </c>
-      <c r="P12" s="45"/>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93">
+      <c r="A13" s="60"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.21202047736187746</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="42">
         <f t="shared" si="1"/>
         <v>0.76439934174437729</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="42">
         <f t="shared" si="1"/>
         <v>0.12062801181408367</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="43">
         <f t="shared" si="1"/>
         <v>-0.1374670550700513</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="42">
         <f t="shared" si="1"/>
         <v>-2.1389514313284064E-2</v>
       </c>
-      <c r="H13" s="93">
+      <c r="H13" s="42">
         <f t="shared" si="1"/>
         <v>0.13015612161051759</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="42">
         <f t="shared" si="1"/>
         <v>0.21884542678493535</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="61">
         <f t="shared" si="1"/>
         <v>0.11989978525411593</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="61">
         <f>SUM(F13:J13)/5</f>
         <v>6.2008952853246702E-2</v>
       </c>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="55" t="s">
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="45"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="89">
-        <v>3396016431</v>
-      </c>
-      <c r="C14" s="89">
-        <v>5640058954</v>
-      </c>
-      <c r="D14" s="89">
-        <v>7262813635</v>
-      </c>
-      <c r="E14" s="89">
-        <v>7550441751</v>
-      </c>
-      <c r="F14" s="90">
-        <v>6161000000</v>
-      </c>
-      <c r="G14" s="89">
-        <v>5730000000</v>
-      </c>
-      <c r="H14" s="89">
-        <v>6090000000</v>
-      </c>
-      <c r="I14" s="89">
-        <v>8582000000</v>
-      </c>
-      <c r="J14" s="89">
-        <v>9213000000</v>
-      </c>
-      <c r="K14" s="91" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="66" t="s">
+      <c r="A14" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="46">
+        <f>B12/B10</f>
+        <v>0.16795171709163592</v>
+      </c>
+      <c r="C14" s="46">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.16361514988332435</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.21841578107493295</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.2290680308855772</v>
+      </c>
+      <c r="F14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.22949730567653354</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.25054555935274014</v>
+      </c>
+      <c r="H14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.25965640928827638</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.28283169118639495</v>
+      </c>
+      <c r="J14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="96">
+      <c r="O14" s="106">
         <f>'[1]US Treasury Bonds'!$C$8</f>
         <v>4.8379999999999999E-2</v>
       </c>
-      <c r="P14" s="45"/>
+      <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="A15" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="57">
+        <v>3396016431</v>
+      </c>
+      <c r="C15" s="57">
+        <v>5640058954</v>
+      </c>
+      <c r="D15" s="57">
+        <v>7262813635</v>
+      </c>
+      <c r="E15" s="57">
+        <v>7550441751</v>
+      </c>
+      <c r="F15" s="62">
+        <v>6161000000</v>
+      </c>
+      <c r="G15" s="57">
+        <v>5730000000</v>
+      </c>
+      <c r="H15" s="57">
+        <v>6090000000</v>
+      </c>
+      <c r="I15" s="57">
+        <v>8582000000</v>
+      </c>
+      <c r="J15" s="58">
+        <v>9213000000</v>
+      </c>
+      <c r="K15" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="107" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="64"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.66078670954463359</v>
       </c>
-      <c r="D15" s="93">
-        <f t="shared" si="2"/>
+      <c r="D16" s="42">
+        <f t="shared" si="3"/>
         <v>0.2877194536856964</v>
       </c>
-      <c r="E15" s="93">
-        <f t="shared" si="2"/>
+      <c r="E16" s="42">
+        <f t="shared" si="3"/>
         <v>3.9602849591775291E-2</v>
       </c>
-      <c r="F15" s="94">
-        <f t="shared" si="2"/>
+      <c r="F16" s="43">
+        <f t="shared" si="3"/>
         <v>-0.18402125290430571</v>
       </c>
-      <c r="G15" s="93">
-        <f t="shared" si="2"/>
+      <c r="G16" s="42">
+        <f t="shared" si="3"/>
         <v>-6.9956175945463439E-2</v>
       </c>
-      <c r="H15" s="93">
-        <f t="shared" si="2"/>
+      <c r="H16" s="42">
+        <f t="shared" si="3"/>
         <v>6.2827225130890119E-2</v>
       </c>
-      <c r="I15" s="93">
-        <f t="shared" si="2"/>
+      <c r="I16" s="42">
+        <f t="shared" si="3"/>
         <v>0.40919540229885065</v>
       </c>
-      <c r="J15" s="93">
-        <f t="shared" si="2"/>
+      <c r="J16" s="61">
+        <f t="shared" si="3"/>
         <v>7.3525984618969975E-2</v>
       </c>
-      <c r="K15" s="95">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="61">
+        <f>SUM(F16:J16)/5</f>
         <v>5.8314236639788318E-2</v>
       </c>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="100" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.80330000000000001</v>
-      </c>
-      <c r="P15" s="45"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="88" t="s">
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="106">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="46">
+        <f>B15/B10</f>
+        <v>0.18960401265137261</v>
+      </c>
+      <c r="C17" s="46">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.25309903760545682</v>
+      </c>
+      <c r="D17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.24658994448782806</v>
+      </c>
+      <c r="E17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.23991743989704808</v>
+      </c>
+      <c r="F17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22739351886026427</v>
+      </c>
+      <c r="G17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.23592868612838144</v>
+      </c>
+      <c r="H17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.22994147630734377</v>
+      </c>
+      <c r="I17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.28958024024834661</v>
+      </c>
+      <c r="J17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.28626025354213275</v>
+      </c>
+      <c r="K17" s="48"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="109">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>7.7054100000000014E-2</v>
+      </c>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="101">
+      <c r="B18" s="66">
         <v>4.7144834746495931E-2</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C18" s="66">
         <v>5.2036699955723915E-2</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D18" s="66">
         <v>8.3125473252861792E-2</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E18" s="66">
         <v>9.3396591511746244E-2</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="96">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="45"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="107">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.6993545999999996E-2</v>
-      </c>
-      <c r="P17" s="45"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="55" t="s">
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="121" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="56"/>
-      <c r="P18" s="45"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="108" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Healthcare Equipment &amp; Supplies</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="109" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1986</v>
-      </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="66" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="111">
+      <c r="O19" s="110">
         <f>O6+O7</f>
         <v>19875000000</v>
       </c>
-      <c r="P19" s="45"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="108" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="110" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>144475026592</v>
+      </c>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="123" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Healthcare Equipment &amp; Supplies</v>
+      </c>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1986</v>
+      </c>
+      <c r="D21" s="124"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="110">
+        <f>O19+O20</f>
+        <v>164350026592</v>
+      </c>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="123" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Danaher Corporation designs, manufactures and markets professional, medical, industrial, and commercial products and services. The Company’s Biotechnology segment includes the bioprocessing and discovery and medical businesses and offers a range of tools, consumables and services that are used by customers to advance and accelerate the research, development, manufacture and delivery of biological medicines. Its Life Sciences segment offers a range of instruments and consumables that are used by customers to study the basic building blocks of life, including deoxyribonucleic acid (DNA)and ribonucleic acid (RNA), nucleic acid, proteins, metabolites and cells, in order to understand the causes of disease, identify new therapies, and test and manufacture new drugs, and vaccines. Its Diagnostics segment offers clinical instruments, reagents, consumables, software that hospitals, physicians’ offices, reference laboratories and other critical care settings use to diagnose disease.</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="111" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>142487188258</v>
-      </c>
-      <c r="P20" s="45"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="111">
-        <f>O19+O20</f>
-        <v>162362188258</v>
-      </c>
-      <c r="P21" s="45"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="80" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="112">
+      <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>0.12241150611014082</v>
-      </c>
-      <c r="P22" s="45"/>
+        <v>0.12093092050018231</v>
+      </c>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="106" t="s">
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="113">
+      <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.87758849388985916</v>
-      </c>
-      <c r="P23" s="45"/>
+        <v>0.87906907949981772</v>
+      </c>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="114" t="s">
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="115"/>
-      <c r="P24" s="45"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="116">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.885937680994153E-2</v>
-      </c>
-      <c r="O25" s="117"/>
-      <c r="P25" s="45"/>
+        <v>6.9010991960898299E-2</v>
+      </c>
+      <c r="O25" s="116"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="87"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="87"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="87"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="87"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="87"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="87"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="87"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="87"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="87"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="87"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="87"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="87"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="87"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="87"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="87"/>
-      <c r="M54" s="87"/>
-      <c r="N54" s="87"/>
-      <c r="O54" s="87"/>
-      <c r="P54" s="87"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="87"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="87"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="87"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="87"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="87"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="87"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="87"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="87"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="87"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
-      <c r="O60" s="87"/>
-      <c r="P60" s="87"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="87"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="87"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="45"/>
-      <c r="P66" s="45"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="45"/>
-      <c r="P68" s="45"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="45"/>
-      <c r="P71" s="45"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="45"/>
-      <c r="P75" s="45"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="45"/>
-      <c r="P76" s="45"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="45"/>
-      <c r="P78" s="45"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="45"/>
-      <c r="P79" s="45"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="45"/>
-      <c r="P80" s="45"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="45"/>
-      <c r="P82" s="45"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="45"/>
-      <c r="P83" s="45"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="45"/>
-      <c r="P84" s="45"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="45"/>
-      <c r="P85" s="45"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="45"/>
-      <c r="P86" s="45"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="45"/>
-      <c r="P87" s="45"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="45"/>
-      <c r="P88" s="45"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="45"/>
-      <c r="P89" s="45"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="45"/>
-      <c r="P90" s="45"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="45"/>
-      <c r="P91" s="45"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="45"/>
-      <c r="P93" s="45"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="45"/>
-      <c r="P94" s="45"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="45"/>
-      <c r="P95" s="45"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="45"/>
-      <c r="P97" s="45"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="45"/>
-      <c r="P98" s="45"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="45"/>
-      <c r="P99" s="45"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="45"/>
-      <c r="P100" s="45"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="45"/>
-      <c r="P102" s="45"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="45"/>
-      <c r="P103" s="45"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="45"/>
-      <c r="P105" s="45"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="45"/>
-      <c r="P106" s="45"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="45"/>
-      <c r="P107" s="45"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="45"/>
-      <c r="P108" s="45"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="45"/>
-      <c r="P109" s="45"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="45"/>
-      <c r="P110" s="45"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17403,8 +17666,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:HSY/explorer/revenue_proj" xr:uid="{55C7DB6A-3213-CD4D-ADA3-FAC60DCF2D76}"/>

--- a/Healthcare/Danaher.xlsx
+++ b/Healthcare/Danaher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001110B4-D610-984E-ADE7-899EE93C3B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E567528-E1EE-464C-8A14-D2AA9227E878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1745,13 +1745,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
-      <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1768,7 +1766,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8379999999999999E-2</v>
+            <v>4.632E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1781,8 +1779,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1910,11 +1906,11 @@
     <v>Powered by Refinitiv</v>
     <v>249.5498</v>
     <v>182.09</v>
-    <v>0.80500000000000005</v>
-    <v>-1.3</v>
-    <v>-6.6049999999999998E-3</v>
-    <v>-0.02</v>
-    <v>-1.0229999999999999E-4</v>
+    <v>0.80189999999999995</v>
+    <v>7.54</v>
+    <v>3.8473E-2</v>
+    <v>-0.3</v>
+    <v>-1.474E-3</v>
     <v>USD</v>
     <v>Danaher Corporation designs, manufactures and markets professional, medical, industrial, and commercial products and services. The Company’s Biotechnology segment includes the bioprocessing and discovery and medical businesses and offers a range of tools, consumables and services that are used by customers to advance and accelerate the research, development, manufacture and delivery of biological medicines. Its Life Sciences segment offers a range of instruments and consumables that are used by customers to study the basic building blocks of life, including deoxyribonucleic acid (DNA)and ribonucleic acid (RNA), nucleic acid, proteins, metabolites and cells, in order to understand the causes of disease, identify new therapies, and test and manufacture new drugs, and vaccines. Its Diagnostics segment offers clinical instruments, reagents, consumables, software that hospitals, physicians’ offices, reference laboratories and other critical care settings use to diagnose disease.</v>
     <v>79000</v>
@@ -1922,25 +1918,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2200 Pennsylvania Ave NW Ste 800W, WASHINGTON, DC, 20037-1701 US</v>
-    <v>199.35</v>
+    <v>204.68</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45240.020216353907</v>
+    <v>45245.036856897656</v>
     <v>0</v>
-    <v>195.3</v>
-    <v>144475026592</v>
+    <v>200.36</v>
+    <v>150386443392</v>
     <v>DANAHER CORPORATION</v>
     <v>DANAHER CORPORATION</v>
-    <v>198.75</v>
-    <v>24.637699999999999</v>
-    <v>196.82</v>
-    <v>195.52</v>
-    <v>195.5</v>
+    <v>200.36</v>
+    <v>25.645800000000001</v>
+    <v>195.98</v>
+    <v>203.52</v>
+    <v>203.22</v>
     <v>738927100</v>
     <v>DHR</v>
     <v>DANAHER CORPORATION (XNYS:DHR)</v>
-    <v>2316923</v>
-    <v>3507282</v>
+    <v>2900199</v>
+    <v>3474923</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -15867,8 +15863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FDBCE-55B5-D547-969B-4D266F8E443F}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15917,7 +15913,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="70" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>144475026592</v>
+        <v>150386443392</v>
       </c>
       <c r="B3" s="71" t="s">
         <v>201</v>
@@ -15945,14 +15941,14 @@
       </c>
       <c r="I3" s="75">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>191737804603.04242</v>
+        <v>192439570694.72055</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="77">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>5.7380159018147166E-3</v>
+        <v>5.5124649622779742E-3</v>
       </c>
       <c r="L3" s="78" t="s">
         <v>212</v>
@@ -15995,14 +15991,14 @@
       </c>
       <c r="I4" s="83">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>166272970542.19888</v>
+        <v>166905983784.00778</v>
       </c>
       <c r="J4" s="81" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="84" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-6.6049999999999998E-3</v>
+        <v>3.8473E-2</v>
       </c>
       <c r="L4" s="85" t="s">
         <v>251</v>
@@ -16045,14 +16041,14 @@
       </c>
       <c r="I5" s="83">
         <f>I4+G5-G6</f>
-        <v>154972970542.19888</v>
+        <v>155605983784.00778</v>
       </c>
       <c r="J5" s="81" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="87" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>195.52</v>
+        <v>203.52</v>
       </c>
       <c r="L5" s="88" t="s">
         <v>219</v>
@@ -16070,7 +16066,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="89">
         <f>O20/F10</f>
-        <v>5.3323623899018235</v>
+        <v>5.550544157082749</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>221</v>
@@ -16098,14 +16094,14 @@
       </c>
       <c r="I6" s="84">
         <f>N25</f>
-        <v>6.9010991960898299E-2</v>
+        <v>6.8832264414617136E-2</v>
       </c>
       <c r="J6" s="81" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="90">
         <f>I5/G4</f>
-        <v>200.22292845436576</v>
+        <v>201.04077278284404</v>
       </c>
       <c r="L6" s="91" t="s">
         <v>225</v>
@@ -16123,14 +16119,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92">
         <f>O20/F12</f>
-        <v>23.234967287230621</v>
+        <v>24.185661529752331</v>
       </c>
       <c r="B7" s="93" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="94">
         <f>F15/O21</f>
-        <v>3.7487064211402424E-2</v>
+        <v>3.6185526665689506E-2</v>
       </c>
       <c r="D7" s="93" t="s">
         <v>228</v>
@@ -16157,7 +16153,7 @@
       </c>
       <c r="K7" s="100">
         <f>K6/K5-1</f>
-        <v>2.4053439312427205E-2</v>
+        <v>-1.2181737505679857E-2</v>
       </c>
       <c r="L7" s="101" t="s">
         <v>231</v>
@@ -16270,6 +16266,7 @@
       <c r="K10" s="59" t="s">
         <v>235</v>
       </c>
+      <c r="L10" s="41"/>
       <c r="N10" s="102" t="s">
         <v>236</v>
       </c>
@@ -16469,7 +16466,7 @@
       </c>
       <c r="O14" s="106">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8379999999999999E-2</v>
+        <v>4.632E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
@@ -16514,7 +16511,7 @@
       </c>
       <c r="O15" s="107" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.80500000000000005</v>
+        <v>0.80189999999999995</v>
       </c>
       <c r="P15" s="38"/>
     </row>
@@ -16615,7 +16612,7 @@
       </c>
       <c r="O17" s="109">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.7054100000000014E-2</v>
+        <v>7.6535592E-2</v>
       </c>
       <c r="P17" s="38"/>
     </row>
@@ -16691,7 +16688,7 @@
       </c>
       <c r="O20" s="110" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>144475026592</v>
+        <v>150386443392</v>
       </c>
       <c r="P20" s="38"/>
     </row>
@@ -16719,7 +16716,7 @@
       </c>
       <c r="O21" s="110">
         <f>O19+O20</f>
-        <v>164350026592</v>
+        <v>170261443392</v>
       </c>
       <c r="P21" s="38"/>
     </row>
@@ -16745,7 +16742,7 @@
       </c>
       <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>0.12093092050018231</v>
+        <v>0.11673224192185991</v>
       </c>
       <c r="P22" s="38"/>
     </row>
@@ -16768,7 +16765,7 @@
       </c>
       <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.87906907949981772</v>
+        <v>0.88326775807814006</v>
       </c>
       <c r="P23" s="38"/>
     </row>
@@ -16808,7 +16805,7 @@
       <c r="M25" s="41"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.9010991960898299E-2</v>
+        <v>6.8832264414617136E-2</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="38"/>

--- a/Healthcare/Danaher.xlsx
+++ b/Healthcare/Danaher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E567528-E1EE-464C-8A14-D2AA9227E878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE13415D-31D2-3343-B37F-63A94F58FEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1469,9 +1469,6 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1709,7 +1706,10 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1743,12 +1743,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Value"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1766,7 +1768,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.632E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1779,6 +1781,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1906,11 +1910,11 @@
     <v>Powered by Refinitiv</v>
     <v>249.5498</v>
     <v>182.09</v>
-    <v>0.80189999999999995</v>
-    <v>7.54</v>
-    <v>3.8473E-2</v>
-    <v>-0.3</v>
-    <v>-1.474E-3</v>
+    <v>0.85370000000000001</v>
+    <v>-1.4</v>
+    <v>-6.3949999999999996E-3</v>
+    <v>0.21</v>
+    <v>9.6560000000000005E-4</v>
     <v>USD</v>
     <v>Danaher Corporation designs, manufactures and markets professional, medical, industrial, and commercial products and services. The Company’s Biotechnology segment includes the bioprocessing and discovery and medical businesses and offers a range of tools, consumables and services that are used by customers to advance and accelerate the research, development, manufacture and delivery of biological medicines. Its Life Sciences segment offers a range of instruments and consumables that are used by customers to study the basic building blocks of life, including deoxyribonucleic acid (DNA)and ribonucleic acid (RNA), nucleic acid, proteins, metabolites and cells, in order to understand the causes of disease, identify new therapies, and test and manufacture new drugs, and vaccines. Its Diagnostics segment offers clinical instruments, reagents, consumables, software that hospitals, physicians’ offices, reference laboratories and other critical care settings use to diagnose disease.</v>
     <v>79000</v>
@@ -1918,25 +1922,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2200 Pennsylvania Ave NW Ste 800W, WASHINGTON, DC, 20037-1701 US</v>
-    <v>204.68</v>
+    <v>220</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45245.036856897656</v>
+    <v>45269.036170659376</v>
     <v>0</v>
-    <v>200.36</v>
-    <v>150386443392</v>
+    <v>215.68</v>
+    <v>160731422792</v>
     <v>DANAHER CORPORATION</v>
     <v>DANAHER CORPORATION</v>
-    <v>200.36</v>
-    <v>25.645800000000001</v>
-    <v>195.98</v>
-    <v>203.52</v>
-    <v>203.22</v>
+    <v>219</v>
+    <v>27.586400000000001</v>
+    <v>218.92</v>
+    <v>217.52</v>
+    <v>217.7</v>
     <v>738927100</v>
     <v>DHR</v>
     <v>DANAHER CORPORATION (XNYS:DHR)</v>
-    <v>2900199</v>
-    <v>3474923</v>
+    <v>2527540</v>
+    <v>2616461</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -2101,9 +2105,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15863,8 +15867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FDBCE-55B5-D547-969B-4D266F8E443F}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15872,297 +15876,297 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="e" vm="1">
+    <row r="1" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-    </row>
-    <row r="2" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+    </row>
+    <row r="2" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" cm="1">
+      <c r="A3" s="69" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>150386443392</v>
-      </c>
-      <c r="B3" s="71" t="s">
+        <v>160731422792</v>
+      </c>
+      <c r="B3" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="71">
         <f>Financials!O8*0.01</f>
         <v>0.59079999999999999</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="71">
         <f>SUM(C11:E11)/3</f>
         <v>0.21145709248573441</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="73">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>9.4934986773774765E-3</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="74">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>192439570694.72055</v>
-      </c>
-      <c r="J3" s="76" t="s">
+        <v>186656469102.62064</v>
+      </c>
+      <c r="J3" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="76">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>5.5124649622779742E-3</v>
-      </c>
-      <c r="L3" s="78" t="s">
+        <v>5.1576722559893958E-3</v>
+      </c>
+      <c r="L3" s="77" t="s">
         <v>212</v>
       </c>
       <c r="M3" s="38"/>
-      <c r="N3" s="119" t="s">
+      <c r="N3" s="118" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="120"/>
+      <c r="O3" s="119"/>
       <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79">
+      <c r="A4" s="78">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-11300000000</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="39">
         <f>Financials!O17*0.01</f>
         <v>0.2482</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>208</v>
       </c>
       <c r="E4" s="39">
         <f>SUM(C13:E13)/3</f>
         <v>0.36568261030677945</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="81">
         <f>A5*(1+(5*G3))</f>
         <v>774002117.23264194</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="82">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>166905983784.00778</v>
-      </c>
-      <c r="J4" s="81" t="s">
+        <v>161689994703.74512</v>
+      </c>
+      <c r="J4" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="84" cm="1">
+      <c r="K4" s="83" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.8473E-2</v>
-      </c>
-      <c r="L4" s="85" t="s">
+        <v>-6.3949999999999996E-3</v>
+      </c>
+      <c r="L4" s="84" t="s">
         <v>251</v>
       </c>
       <c r="M4" s="38"/>
-      <c r="N4" s="121" t="s">
+      <c r="N4" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="122"/>
+      <c r="O4" s="121"/>
       <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="79" cm="1">
+      <c r="A5" s="78" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>738927100</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>214</v>
       </c>
       <c r="C5" s="39">
         <f>F14</f>
         <v>0.22949730567653354</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="85" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="39">
         <f>SUM(C16:E16)/3</f>
         <v>0.32936967094070174</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="81">
         <f>Financials!O56</f>
         <v>8575000000</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="82">
         <f>I4+G5-G6</f>
-        <v>155605983784.00778</v>
-      </c>
-      <c r="J5" s="81" t="s">
+        <v>150389994703.74512</v>
+      </c>
+      <c r="J5" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="87" cm="1">
+      <c r="K5" s="86" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>203.52</v>
-      </c>
-      <c r="L5" s="88" t="s">
+        <v>217.52</v>
+      </c>
+      <c r="L5" s="87" t="s">
         <v>219</v>
       </c>
       <c r="M5" s="38"/>
-      <c r="N5" s="102" t="s">
+      <c r="N5" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="103">
+      <c r="O5" s="102">
         <f>Financials!O21</f>
         <v>241000000</v>
       </c>
       <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89">
+      <c r="A6" s="88">
         <f>O20/F10</f>
-        <v>5.550544157082749</v>
-      </c>
-      <c r="B6" s="80" t="s">
+        <v>5.9323622496493691</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="39">
         <f>F17</f>
         <v>0.22739351886026427</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="85" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="39">
         <f>Financials!O33/Financials!O126</f>
         <v>0.12296032789420772</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="81">
         <f>Financials!O96+Financials!O105</f>
         <v>19875000000</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="84">
+      <c r="I6" s="83">
         <f>N25</f>
-        <v>6.8832264414617136E-2</v>
-      </c>
-      <c r="J6" s="81" t="s">
+        <v>7.0345214635092787E-2</v>
+      </c>
+      <c r="J6" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="89">
         <f>I5/G4</f>
-        <v>201.04077278284404</v>
-      </c>
-      <c r="L6" s="91" t="s">
+        <v>194.30178723728525</v>
+      </c>
+      <c r="L6" s="90" t="s">
         <v>225</v>
       </c>
       <c r="M6" s="38"/>
-      <c r="N6" s="102" t="s">
+      <c r="N6" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="103">
+      <c r="O6" s="102">
         <f>Financials!O96</f>
         <v>1590000000</v>
       </c>
       <c r="P6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="A7" s="91">
         <f>O20/F12</f>
-        <v>24.185661529752331</v>
-      </c>
-      <c r="B7" s="93" t="s">
+        <v>25.849376454165327</v>
+      </c>
+      <c r="B7" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="93">
         <f>F15/O21</f>
-        <v>3.6185526665689506E-2</v>
-      </c>
-      <c r="D7" s="93" t="s">
+        <v>3.411285105345048E-2</v>
+      </c>
+      <c r="D7" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="94">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>7.8918699981843324E-2</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="95">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.38425102466939914</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="98">
+      <c r="I7" s="97">
         <v>0.02</v>
       </c>
-      <c r="J7" s="99" t="s">
+      <c r="J7" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="100">
+      <c r="K7" s="99">
         <f>K6/K5-1</f>
-        <v>-1.2181737505679857E-2</v>
-      </c>
-      <c r="L7" s="101" t="s">
+        <v>-0.10674058828022603</v>
+      </c>
+      <c r="L7" s="100" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="38"/>
-      <c r="N7" s="102" t="s">
+      <c r="N7" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="103">
+      <c r="O7" s="102">
         <f>Financials!O105</f>
         <v>18285000000</v>
       </c>
@@ -16182,102 +16186,102 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="105">
+      <c r="O8" s="104">
         <f>O5/(O6+O7)</f>
         <v>1.2125786163522013E-2</v>
       </c>
       <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49">
         <v>2019</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="49">
         <v>2020</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="49">
         <v>2021</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="50">
         <v>2022</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="51">
         <v>2023</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <v>2024</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="52">
         <v>2025</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="52">
         <v>2026</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="53">
         <v>2027</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="41"/>
       <c r="M9" s="41"/>
-      <c r="N9" s="102" t="s">
+      <c r="N9" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="103">
+      <c r="O9" s="102">
         <f>Financials!O25</f>
         <v>954000000</v>
       </c>
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>17911100000</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="56">
         <v>22284000000</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="56">
         <v>29453000000</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="57">
         <v>31471000000</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="56">
         <v>27094000000</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="56">
         <v>24287000000</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="56">
         <v>26485000000</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="56">
         <v>29636000000</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="57">
         <v>32184000000</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="58" t="s">
         <v>235</v>
       </c>
       <c r="L10" s="41"/>
-      <c r="N10" s="102" t="s">
+      <c r="N10" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="103">
+      <c r="O10" s="102">
         <f>Financials!O24</f>
         <v>7314000000</v>
       </c>
       <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -16307,72 +16311,72 @@
         <f t="shared" si="0"/>
         <v>0.11897300358693608</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="60">
         <f t="shared" si="0"/>
         <v>8.5976515049264401E-2</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="60">
         <f>SUM(F11:J11)/5</f>
         <v>1.0553582588400823E-2</v>
       </c>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
-      <c r="N11" s="102" t="s">
+      <c r="N11" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="106">
+      <c r="O11" s="105">
         <f>O9/O10</f>
         <v>0.13043478260869565</v>
       </c>
       <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>3008200000</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="56">
         <v>3646000000</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="56">
         <v>6433000000</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="56">
         <v>7209000000</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="61">
         <v>6218000000</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="56">
         <v>6085000000</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="56">
         <v>6877000000</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="56">
         <v>8382000000</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="57">
         <v>9387000000</v>
       </c>
-      <c r="K12" s="63" t="s">
+      <c r="K12" s="62" t="s">
         <v>238</v>
       </c>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
-      <c r="N12" s="102" t="s">
+      <c r="N12" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="106">
+      <c r="O12" s="105">
         <f>O8*(1-O11)</f>
         <v>1.054416188132349E-2</v>
       </c>
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -16402,121 +16406,121 @@
         <f t="shared" si="1"/>
         <v>0.21884542678493535</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="60">
         <f t="shared" si="1"/>
         <v>0.11989978525411593</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="60">
         <f>SUM(F13:J13)/5</f>
         <v>6.2008952853246702E-2</v>
       </c>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
-      <c r="N13" s="121" t="s">
+      <c r="N13" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="122"/>
+      <c r="O13" s="121"/>
       <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <f>B12/B10</f>
         <v>0.16795171709163592</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>0.16361514988332435</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <f t="shared" si="2"/>
         <v>0.21841578107493295</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <f t="shared" si="2"/>
         <v>0.2290680308855772</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="46">
         <f t="shared" si="2"/>
         <v>0.22949730567653354</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <f t="shared" si="2"/>
         <v>0.25054555935274014</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <f t="shared" si="2"/>
         <v>0.25965640928827638</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="45">
         <f t="shared" si="2"/>
         <v>0.28283169118639495</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="47">
         <f t="shared" si="2"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="K14" s="48"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
-      <c r="N14" s="102" t="s">
+      <c r="N14" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="106">
+      <c r="O14" s="105">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.632E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="56">
         <v>3396016431</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="56">
         <v>5640058954</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="56">
         <v>7262813635</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="56">
         <v>7550441751</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="61">
         <v>6161000000</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="56">
         <v>5730000000</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="56">
         <v>6090000000</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="56">
         <v>8582000000</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="57">
         <v>9213000000</v>
       </c>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="62" t="s">
         <v>241</v>
       </c>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
-      <c r="N15" s="102" t="s">
+      <c r="N15" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="107" cm="1">
+      <c r="O15" s="106" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.80189999999999995</v>
+        <v>0.85370000000000001</v>
       </c>
       <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -16546,104 +16550,104 @@
         <f t="shared" si="3"/>
         <v>0.40919540229885065</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="60">
         <f t="shared" si="3"/>
         <v>7.3525984618969975E-2</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="60">
         <f>SUM(F16:J16)/5</f>
         <v>5.8314236639788318E-2</v>
       </c>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
-      <c r="N16" s="102" t="s">
+      <c r="N16" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="106">
+      <c r="O16" s="105">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="38"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <f>B15/B10</f>
         <v>0.18960401265137261</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="45">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.25309903760545682</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="45">
         <f t="shared" si="4"/>
         <v>0.24658994448782806</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="47">
         <f t="shared" si="4"/>
         <v>0.23991743989704808</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="45">
         <f t="shared" si="4"/>
         <v>0.22739351886026427</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="45">
         <f t="shared" si="4"/>
         <v>0.23592868612838144</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="45">
         <f t="shared" si="4"/>
         <v>0.22994147630734377</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="45">
         <f t="shared" si="4"/>
         <v>0.28958024024834661</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="47">
         <f t="shared" si="4"/>
         <v>0.28626025354213275</v>
       </c>
-      <c r="K17" s="48"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="41"/>
       <c r="M17" s="41"/>
-      <c r="N17" s="108" t="s">
+      <c r="N17" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="109">
+      <c r="O17" s="108">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.6535592E-2</v>
+        <v>7.7739823000000013E-2</v>
       </c>
       <c r="P17" s="38"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="65">
         <v>4.7144834746495931E-2</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="65">
         <v>5.2036699955723915E-2</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="65">
         <v>8.3125473252861792E-2</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="65">
         <v>9.3396591511746244E-2</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
-      <c r="N18" s="121" t="s">
+      <c r="N18" s="120" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="122"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16660,10 +16664,10 @@
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
-      <c r="N19" s="102" t="s">
+      <c r="N19" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="110">
+      <c r="O19" s="109">
         <f>O6+O7</f>
         <v>19875000000</v>
       </c>
@@ -16683,12 +16687,12 @@
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
-      <c r="N20" s="102" t="s">
+      <c r="N20" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="110" cm="1">
+      <c r="O20" s="109" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>150386443392</v>
+        <v>160731422792</v>
       </c>
       <c r="P20" s="38"/>
     </row>
@@ -16698,12 +16702,12 @@
         <v>Healthcare Equipment &amp; Supplies</v>
       </c>
       <c r="B21" s="123"/>
-      <c r="C21" s="124" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1986</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
@@ -16711,24 +16715,24 @@
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
       <c r="M21" s="41"/>
-      <c r="N21" s="102" t="s">
+      <c r="N21" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="110">
+      <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>170261443392</v>
+        <v>180606422792</v>
       </c>
       <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="123" t="str" cm="1">
+      <c r="A22" s="122" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Danaher Corporation designs, manufactures and markets professional, medical, industrial, and commercial products and services. The Company’s Biotechnology segment includes the bioprocessing and discovery and medical businesses and offers a range of tools, consumables and services that are used by customers to advance and accelerate the research, development, manufacture and delivery of biological medicines. Its Life Sciences segment offers a range of instruments and consumables that are used by customers to study the basic building blocks of life, including deoxyribonucleic acid (DNA)and ribonucleic acid (RNA), nucleic acid, proteins, metabolites and cells, in order to understand the causes of disease, identify new therapies, and test and manufacture new drugs, and vaccines. Its Diagnostics segment offers clinical instruments, reagents, consumables, software that hospitals, physicians’ offices, reference laboratories and other critical care settings use to diagnose disease.</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
@@ -16737,21 +16741,21 @@
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
-      <c r="N22" s="104" t="s">
+      <c r="N22" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="111">
+      <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>0.11673224192185991</v>
+        <v>0.11004592025439511</v>
       </c>
       <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
@@ -16760,21 +16764,21 @@
       <c r="K23" s="41"/>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
-      <c r="N23" s="108" t="s">
+      <c r="N23" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="112">
+      <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.88326775807814006</v>
+        <v>0.88995407974560492</v>
       </c>
       <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="123"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
@@ -16783,18 +16787,18 @@
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
-      <c r="N24" s="113" t="s">
+      <c r="N24" s="112" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="114"/>
+      <c r="O24" s="113"/>
       <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="123"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
@@ -16803,19 +16807,19 @@
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
-      <c r="N25" s="115">
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.8832264414617136E-2</v>
-      </c>
-      <c r="O25" s="116"/>
+        <v>7.0345214635092787E-2</v>
+      </c>
+      <c r="O25" s="115"/>
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="123"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
@@ -16829,11 +16833,11 @@
       <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="123"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
@@ -16847,11 +16851,11 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="123"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
@@ -16865,11 +16869,11 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
@@ -16883,11 +16887,11 @@
       <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
@@ -17663,9 +17667,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:HSY/explorer/revenue_proj" xr:uid="{55C7DB6A-3213-CD4D-ADA3-FAC60DCF2D76}"/>
